--- a/KJLTVX/Corrigidos/LTVL/POS_KJLTVL111120R01.xlsx
+++ b/KJLTVX/Corrigidos/LTVL/POS_KJLTVL111120R01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D136AD8-06B4-420D-916C-C8C28FB2E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1881024D-86C5-4A99-A2C1-BD7F4E488AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="1" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1487,6 +1487,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF003473"/>
         <bgColor rgb="FF003473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE4EBEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC2CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1809,11 +1821,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1823,9 +1832,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1835,18 +1841,12 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1872,24 +1872,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1970,115 +1952,151 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2492,527 +2510,527 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="3" style="29" customWidth="1"/>
-    <col min="4" max="5" width="53.109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="29"/>
+    <col min="1" max="1" width="2.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="3" style="19" customWidth="1"/>
+    <col min="4" max="5" width="53.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="28.2" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="30"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="30"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="30"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="30"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="30"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="30"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3038,386 +3056,386 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="28" customWidth="1"/>
-    <col min="3" max="6" width="6.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="28"/>
+    <col min="1" max="1" width="6.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="18" customWidth="1"/>
+    <col min="3" max="6" width="6.6640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+      <c r="A2" s="32">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="36">
         <v>0</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="36">
         <v>5</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="28">
         <v>0</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="36">
         <v>68</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="36">
         <v>1</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="36">
         <v>281</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="28">
         <v>0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="28">
         <v>0</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="28">
         <v>18</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="36">
         <v>0</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="36">
         <v>1</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="36">
         <v>0</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="28">
         <v>0</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="28">
         <v>0</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="28">
         <v>3</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="32">
         <v>2</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="28">
         <v>0</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="28">
         <v>1</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="36">
         <v>22</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="36">
         <v>86</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="28">
         <v>22</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="28">
         <v>0</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="36">
         <v>0</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="36">
         <v>28</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="36">
         <v>53</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="28">
         <v>0</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="28">
         <v>58</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
+      <c r="A19" s="32">
         <v>0</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="28">
         <v>0</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="28">
         <v>17</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="28">
         <v>0</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="51">
+      <c r="B23" s="69"/>
+      <c r="C23" s="41">
         <v>4</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="42">
         <v>3</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="43">
         <v>9</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="57"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3444,4515 +3462,4758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16 J16"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="1.6640625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="102" style="28" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="28"/>
+    <col min="1" max="5" width="1.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="102" style="18" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="31" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="67" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="64" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="67" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="64" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="67" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="64" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="67" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="64" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="67" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="64" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="67" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="64" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="59" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="69" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="59" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="15" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="69" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="59" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="64" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="18" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="67" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="64" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="18" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="67" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="64" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="18" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="67" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="64" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="18" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="67" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="64" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="18" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="67" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="15" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="69" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="59" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="15" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="69" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="16" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="59" t="s">
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H34" s="60" t="s">
+      <c r="H34" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="15" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="69" t="s">
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="16" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="59" t="s">
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H36" s="60" t="s">
+      <c r="H36" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="15" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="69" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="16" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="59" t="s">
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="15" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="69" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="72" t="s">
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H40" s="73" t="s">
+      <c r="H40" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="94"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="75" t="s">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="56" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="76" t="s">
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="78" t="s">
+      <c r="H43" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="94"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="79" t="s">
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="58" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="49"/>
+      <c r="B46" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="81" t="s">
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="82" t="s">
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="80" t="s">
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="7" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="82" t="s">
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H49" s="83" t="s">
+      <c r="H49" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="80" t="s">
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H50" s="81" t="s">
+      <c r="H50" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="7" t="s">
+      <c r="A51" s="49"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="82" t="s">
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="83" t="s">
+      <c r="H51" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="80" t="s">
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="81" t="s">
+      <c r="H52" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="82" t="s">
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="83" t="s">
+      <c r="H53" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="8" t="s">
+      <c r="A54" s="49"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="80" t="s">
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="81" t="s">
+      <c r="H54" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="7" t="s">
+      <c r="A55" s="49"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="82" t="s">
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H55" s="83" t="s">
+      <c r="H55" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="49"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="80" t="s">
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H56" s="81" t="s">
+      <c r="H56" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="7" t="s">
+      <c r="A57" s="49"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="82" t="s">
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="83" t="s">
+      <c r="H57" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="8" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="80" t="s">
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H58" s="81" t="s">
+      <c r="H58" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="7" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="82" t="s">
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H59" s="83" t="s">
+      <c r="H59" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="49"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="80" t="s">
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H60" s="81" t="s">
+      <c r="H60" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="7" t="s">
+      <c r="A61" s="49"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="82" t="s">
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="83" t="s">
+      <c r="H61" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="8" t="s">
+      <c r="A62" s="49"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="80" t="s">
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H62" s="81" t="s">
+      <c r="H62" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="74"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="6" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="84" t="s">
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="85" t="s">
+      <c r="H63" s="61" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="94"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="67"/>
     </row>
     <row r="65" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="63" t="s">
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="50" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="49"/>
+      <c r="B66" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="68" t="s">
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="52" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="15" t="s">
+      <c r="A67" s="49"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="69" t="s">
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H67" s="70" t="s">
+      <c r="H67" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="61"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="16" t="s">
+      <c r="A68" s="49"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="59" t="s">
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H68" s="60" t="s">
+      <c r="H68" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="61"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="15" t="s">
+      <c r="A69" s="49"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="69" t="s">
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H69" s="70" t="s">
+      <c r="H69" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="61"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="18" t="s">
+      <c r="A70" s="49"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="68" t="s">
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="52" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="20" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="66" t="s">
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="51" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="61"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="18" t="s">
+      <c r="A72" s="49"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="67" t="s">
+      <c r="F72" s="73"/>
+      <c r="G72" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H72" s="68" t="s">
+      <c r="H72" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="20" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="64" t="s">
+      <c r="F73" s="71"/>
+      <c r="G73" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H73" s="66" t="s">
+      <c r="H73" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="61"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="18" t="s">
+      <c r="A74" s="49"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="67" t="s">
+      <c r="F74" s="73"/>
+      <c r="G74" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H74" s="68" t="s">
+      <c r="H74" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="20" t="s">
+      <c r="A75" s="49"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="64" t="s">
+      <c r="F75" s="71"/>
+      <c r="G75" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H75" s="66" t="s">
+      <c r="H75" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="61"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="18" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="67" t="s">
+      <c r="F76" s="73"/>
+      <c r="G76" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H76" s="68" t="s">
+      <c r="H76" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="20" t="s">
+      <c r="A77" s="49"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="64" t="s">
+      <c r="F77" s="71"/>
+      <c r="G77" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="H77" s="66" t="s">
+      <c r="H77" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="18" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="67" t="s">
+      <c r="F78" s="73"/>
+      <c r="G78" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="68" t="s">
+      <c r="H78" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="20" t="s">
+      <c r="A79" s="49"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="64" t="s">
+      <c r="F79" s="71"/>
+      <c r="G79" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="H79" s="66" t="s">
+      <c r="H79" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="61"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="18" t="s">
+      <c r="A80" s="49"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="67" t="s">
+      <c r="F80" s="73"/>
+      <c r="G80" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H80" s="68" t="s">
+      <c r="H80" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="61"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="20" t="s">
+      <c r="A81" s="49"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="64" t="s">
+      <c r="F81" s="71"/>
+      <c r="G81" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H81" s="66" t="s">
+      <c r="H81" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="18" t="s">
+      <c r="A82" s="49"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="67" t="s">
+      <c r="F82" s="73"/>
+      <c r="G82" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H82" s="68" t="s">
+      <c r="H82" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="20" t="s">
+      <c r="A83" s="49"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="64" t="s">
+      <c r="F83" s="71"/>
+      <c r="G83" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H83" s="66" t="s">
+      <c r="H83" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="18" t="s">
+      <c r="A84" s="49"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="67" t="s">
+      <c r="F84" s="73"/>
+      <c r="G84" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H84" s="68" t="s">
+      <c r="H84" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="61"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="20" t="s">
+      <c r="A85" s="49"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F85" s="19"/>
-      <c r="G85" s="64" t="s">
+      <c r="F85" s="71"/>
+      <c r="G85" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H85" s="66" t="s">
+      <c r="H85" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="61"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="18" t="s">
+      <c r="A86" s="49"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="67" t="s">
+      <c r="F86" s="73"/>
+      <c r="G86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="68" t="s">
+      <c r="H86" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="20" t="s">
+      <c r="A87" s="49"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="64" t="s">
+      <c r="F87" s="71"/>
+      <c r="G87" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H87" s="66" t="s">
+      <c r="H87" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="61"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="18" t="s">
+      <c r="A88" s="49"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="67" t="s">
+      <c r="F88" s="73"/>
+      <c r="G88" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H88" s="68" t="s">
+      <c r="H88" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="61"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="20" t="s">
+      <c r="A89" s="49"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="F89" s="19"/>
-      <c r="G89" s="64" t="s">
+      <c r="F89" s="71"/>
+      <c r="G89" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H89" s="66" t="s">
+      <c r="H89" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="61"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="18" t="s">
+      <c r="A90" s="49"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="68" t="s">
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="52" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="20" t="s">
+      <c r="A91" s="49"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="F91" s="19"/>
-      <c r="G91" s="64" t="s">
+      <c r="F91" s="71"/>
+      <c r="G91" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="H91" s="66" t="s">
+      <c r="H91" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="18" t="s">
+      <c r="A92" s="49"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="67" t="s">
+      <c r="F92" s="73"/>
+      <c r="G92" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H92" s="68" t="s">
+      <c r="H92" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="20" t="s">
+      <c r="A93" s="49"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="F93" s="19"/>
-      <c r="G93" s="64" t="s">
+      <c r="F93" s="71"/>
+      <c r="G93" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="H93" s="66" t="s">
+      <c r="H93" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="18" t="s">
+      <c r="A94" s="49"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="67" t="s">
+      <c r="F94" s="73"/>
+      <c r="G94" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H94" s="68" t="s">
+      <c r="H94" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="20" t="s">
+      <c r="A95" s="49"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="F95" s="19"/>
-      <c r="G95" s="64" t="s">
+      <c r="F95" s="71"/>
+      <c r="G95" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="66" t="s">
+      <c r="H95" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="18" t="s">
+      <c r="A96" s="49"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="67" t="s">
+      <c r="F96" s="73"/>
+      <c r="G96" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="H96" s="68" t="s">
+      <c r="H96" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="20" t="s">
+      <c r="A97" s="49"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="G97" s="64" t="s">
+      <c r="F97" s="71"/>
+      <c r="G97" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="H97" s="66" t="s">
+      <c r="H97" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="18" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="67" t="s">
+      <c r="F98" s="73"/>
+      <c r="G98" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="H98" s="68" t="s">
+      <c r="H98" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="20" t="s">
+      <c r="A99" s="49"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="66" t="s">
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="18" t="s">
+      <c r="A100" s="49"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="67" t="s">
+      <c r="F100" s="73"/>
+      <c r="G100" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="H100" s="68" t="s">
+      <c r="H100" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="61"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="20" t="s">
+      <c r="A101" s="49"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="F101" s="19"/>
-      <c r="G101" s="64" t="s">
+      <c r="F101" s="71"/>
+      <c r="G101" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="H101" s="66" t="s">
+      <c r="H101" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="61"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="18" t="s">
+      <c r="A102" s="49"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="68" t="s">
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="61"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="20" t="s">
+      <c r="A103" s="49"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="64" t="s">
+      <c r="F103" s="71"/>
+      <c r="G103" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H103" s="66" t="s">
+      <c r="H103" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="61"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="18" t="s">
+      <c r="A104" s="49"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="67" t="s">
+      <c r="F104" s="73"/>
+      <c r="G104" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="H104" s="68" t="s">
+      <c r="H104" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="61"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="5" t="s">
+      <c r="A105" s="49"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="65"/>
-      <c r="H105" s="86" t="s">
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="16" t="s">
+      <c r="A106" s="49"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="59" t="s">
+      <c r="F106" s="73"/>
+      <c r="G106" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="15" t="s">
+      <c r="A107" s="49"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="F107" s="19"/>
-      <c r="G107" s="69" t="s">
+      <c r="F107" s="71"/>
+      <c r="G107" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H107" s="70" t="s">
+      <c r="H107" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="16" t="s">
+      <c r="A108" s="49"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="59" t="s">
+      <c r="F108" s="73"/>
+      <c r="G108" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H108" s="60" t="s">
+      <c r="H108" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="61"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="15" t="s">
+      <c r="A109" s="49"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="F109" s="19"/>
-      <c r="G109" s="69" t="s">
+      <c r="F109" s="71"/>
+      <c r="G109" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H109" s="70" t="s">
+      <c r="H109" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="61"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="16" t="s">
+      <c r="A110" s="49"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="59" t="s">
+      <c r="F110" s="73"/>
+      <c r="G110" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="H110" s="60" t="s">
+      <c r="H110" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="15" t="s">
+      <c r="A111" s="49"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="69" t="s">
+      <c r="F111" s="71"/>
+      <c r="G111" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H111" s="70" t="s">
+      <c r="H111" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="61"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="16" t="s">
+      <c r="A112" s="49"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="59" t="s">
+      <c r="F112" s="73"/>
+      <c r="G112" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H112" s="60" t="s">
+      <c r="H112" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="15" t="s">
+      <c r="A113" s="49"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="69" t="s">
+      <c r="F113" s="71"/>
+      <c r="G113" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H113" s="70" t="s">
+      <c r="H113" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="61"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="16" t="s">
+      <c r="A114" s="49"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="F114" s="17"/>
-      <c r="G114" s="59" t="s">
+      <c r="F114" s="73"/>
+      <c r="G114" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="H114" s="60" t="s">
+      <c r="H114" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="15" t="s">
+      <c r="A115" s="49"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="19"/>
-      <c r="G115" s="69" t="s">
+      <c r="F115" s="71"/>
+      <c r="G115" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H115" s="70" t="s">
+      <c r="H115" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="61"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="16" t="s">
+      <c r="A116" s="49"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="59" t="s">
+      <c r="F116" s="73"/>
+      <c r="G116" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="H116" s="60" t="s">
+      <c r="H116" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="15" t="s">
+      <c r="A117" s="49"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="F117" s="19"/>
-      <c r="G117" s="69" t="s">
+      <c r="F117" s="71"/>
+      <c r="G117" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H117" s="70" t="s">
+      <c r="H117" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="16" t="s">
+      <c r="A118" s="49"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="59" t="s">
+      <c r="F118" s="73"/>
+      <c r="G118" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H118" s="60" t="s">
+      <c r="H118" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="15" t="s">
+      <c r="A119" s="49"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="69" t="s">
+      <c r="F119" s="71"/>
+      <c r="G119" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H119" s="70" t="s">
+      <c r="H119" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="16" t="s">
+      <c r="A120" s="49"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="59" t="s">
+      <c r="F120" s="73"/>
+      <c r="G120" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H120" s="60" t="s">
+      <c r="H120" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="15" t="s">
+      <c r="A121" s="49"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="F121" s="19"/>
-      <c r="G121" s="69" t="s">
+      <c r="F121" s="71"/>
+      <c r="G121" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H121" s="70" t="s">
+      <c r="H121" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="16" t="s">
+      <c r="A122" s="49"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="59" t="s">
+      <c r="F122" s="73"/>
+      <c r="G122" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H122" s="60" t="s">
+      <c r="H122" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="15" t="s">
+      <c r="A123" s="49"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="69" t="s">
+      <c r="F123" s="71"/>
+      <c r="G123" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H123" s="70" t="s">
+      <c r="H123" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="61"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="16" t="s">
+      <c r="A124" s="49"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="59" t="s">
+      <c r="F124" s="73"/>
+      <c r="G124" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H124" s="60" t="s">
+      <c r="H124" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="15" t="s">
+      <c r="A125" s="49"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="F125" s="19"/>
-      <c r="G125" s="69" t="s">
+      <c r="F125" s="71"/>
+      <c r="G125" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H125" s="70" t="s">
+      <c r="H125" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="61"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="18" t="s">
+      <c r="A126" s="49"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="58"/>
-      <c r="H126" s="68" t="s">
+      <c r="D126" s="73"/>
+      <c r="E126" s="73"/>
+      <c r="F126" s="73"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="52" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="61"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="5" t="s">
+      <c r="A127" s="49"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="86" t="s">
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="16" t="s">
+      <c r="A128" s="49"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="59" t="s">
+      <c r="F128" s="73"/>
+      <c r="G128" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H128" s="60" t="s">
+      <c r="H128" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="15" t="s">
+      <c r="A129" s="49"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="69" t="s">
+      <c r="F129" s="71"/>
+      <c r="G129" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H129" s="70" t="s">
+      <c r="H129" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="61"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="18" t="s">
+      <c r="A130" s="49"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="58"/>
-      <c r="H130" s="68" t="s">
+      <c r="E130" s="73"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="61"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="20" t="s">
+      <c r="A131" s="49"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="F131" s="19"/>
-      <c r="G131" s="64" t="s">
+      <c r="F131" s="71"/>
+      <c r="G131" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H131" s="66" t="s">
+      <c r="H131" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="61"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="18" t="s">
+      <c r="A132" s="49"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="67" t="s">
+      <c r="F132" s="73"/>
+      <c r="G132" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="H132" s="68" t="s">
+      <c r="H132" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="61"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="20" t="s">
+      <c r="A133" s="49"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="65"/>
-      <c r="H133" s="66" t="s">
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="61"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="18" t="s">
+      <c r="A134" s="49"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="67" t="s">
+      <c r="F134" s="73"/>
+      <c r="G134" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H134" s="68" t="s">
+      <c r="H134" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="61"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="20" t="s">
+      <c r="A135" s="49"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="F135" s="19"/>
-      <c r="G135" s="64" t="s">
+      <c r="F135" s="71"/>
+      <c r="G135" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H135" s="66" t="s">
+      <c r="H135" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="61"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="18" t="s">
+      <c r="A136" s="49"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="58"/>
-      <c r="H136" s="68" t="s">
+      <c r="D136" s="73"/>
+      <c r="E136" s="73"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="52" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="7" t="s">
+      <c r="A137" s="49"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="82" t="s">
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H137" s="83" t="s">
+      <c r="H137" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="61"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="18" t="s">
+      <c r="A138" s="49"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="67" t="s">
+      <c r="E138" s="73"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="H138" s="68" t="s">
+      <c r="H138" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="61"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="20" t="s">
+      <c r="A139" s="49"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="64" t="s">
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H139" s="66" t="s">
+      <c r="H139" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="61"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="18" t="s">
+      <c r="A140" s="49"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="67" t="s">
+      <c r="E140" s="73"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="H140" s="68" t="s">
+      <c r="H140" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="61"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="20" t="s">
+      <c r="A141" s="49"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="64" t="s">
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H141" s="66" t="s">
+      <c r="H141" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="61"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="18" t="s">
+      <c r="A142" s="49"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="58"/>
-      <c r="H142" s="68" t="s">
+      <c r="E142" s="73"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="61"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="20" t="s">
+      <c r="A143" s="49"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="F143" s="19"/>
-      <c r="G143" s="65"/>
-      <c r="H143" s="66" t="s">
+      <c r="F143" s="71"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="61"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-      <c r="F144" s="18" t="s">
+      <c r="A144" s="49"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G144" s="58"/>
-      <c r="H144" s="68" t="s">
+      <c r="G144" s="13"/>
+      <c r="H144" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="145" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="61"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="65"/>
-      <c r="G145" s="64" t="s">
+      <c r="A145" s="49"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H145" s="66" t="s">
+      <c r="H145" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="61"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="58"/>
-      <c r="F146" s="58"/>
-      <c r="G146" s="67" t="s">
+      <c r="A146" s="49"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="H146" s="68" t="s">
+      <c r="H146" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="61"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="20" t="s">
+      <c r="A147" s="49"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="65"/>
-      <c r="H147" s="66" t="s">
+      <c r="E147" s="71"/>
+      <c r="F147" s="71"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="61"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="18" t="s">
+      <c r="A148" s="49"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="F148" s="17"/>
-      <c r="G148" s="58"/>
-      <c r="H148" s="68" t="s">
+      <c r="F148" s="73"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="61"/>
-      <c r="B149" s="65"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="20" t="s">
+      <c r="A149" s="49"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="G149" s="65"/>
-      <c r="H149" s="66" t="s">
+      <c r="G149" s="15"/>
+      <c r="H149" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="61"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="58"/>
-      <c r="G150" s="67" t="s">
+      <c r="A150" s="49"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H150" s="68" t="s">
+      <c r="H150" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="61"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="64" t="s">
+      <c r="A151" s="49"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="H151" s="66" t="s">
+      <c r="H151" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="61"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="18" t="s">
+      <c r="A152" s="49"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="67" t="s">
+      <c r="E152" s="73"/>
+      <c r="F152" s="73"/>
+      <c r="G152" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="H152" s="68" t="s">
+      <c r="H152" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="61"/>
-      <c r="B153" s="65"/>
-      <c r="C153" s="20" t="s">
+      <c r="A153" s="49"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="65"/>
-      <c r="H153" s="66" t="s">
+      <c r="D153" s="71"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="71"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="51" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="61"/>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="18" t="s">
+      <c r="A154" s="49"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="58"/>
-      <c r="H154" s="68" t="s">
+      <c r="E154" s="73"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="52" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="61"/>
-      <c r="B155" s="65"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="20" t="s">
+      <c r="A155" s="49"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="F155" s="19"/>
-      <c r="G155" s="65"/>
-      <c r="H155" s="66" t="s">
+      <c r="F155" s="71"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="51" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="58"/>
-      <c r="F156" s="18" t="s">
+      <c r="A156" s="49"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="G156" s="58"/>
-      <c r="H156" s="68" t="s">
+      <c r="G156" s="13"/>
+      <c r="H156" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="61"/>
-      <c r="B157" s="65"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65"/>
-      <c r="E157" s="65"/>
-      <c r="F157" s="65"/>
-      <c r="G157" s="64" t="s">
+      <c r="A157" s="49"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H157" s="66" t="s">
+      <c r="H157" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="61"/>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="58"/>
-      <c r="G158" s="67" t="s">
+      <c r="A158" s="49"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="H158" s="68" t="s">
+      <c r="H158" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="61"/>
-      <c r="B159" s="65"/>
-      <c r="C159" s="65"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="65"/>
-      <c r="F159" s="20" t="s">
+      <c r="A159" s="49"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="G159" s="65"/>
-      <c r="H159" s="66" t="s">
+      <c r="G159" s="15"/>
+      <c r="H159" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="61"/>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="58"/>
-      <c r="F160" s="58"/>
-      <c r="G160" s="67" t="s">
+      <c r="A160" s="49"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="H160" s="68" t="s">
+      <c r="H160" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="61"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="65"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="65"/>
-      <c r="F161" s="65"/>
-      <c r="G161" s="64" t="s">
+      <c r="A161" s="49"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H161" s="66" t="s">
+      <c r="H161" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="61"/>
-      <c r="B162" s="58"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="58"/>
-      <c r="F162" s="18" t="s">
+      <c r="A162" s="49"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="G162" s="58"/>
-      <c r="H162" s="68" t="s">
+      <c r="G162" s="13"/>
+      <c r="H162" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="61"/>
-      <c r="B163" s="65"/>
-      <c r="C163" s="65"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="65"/>
-      <c r="F163" s="65"/>
-      <c r="G163" s="64" t="s">
+      <c r="A163" s="49"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H163" s="66" t="s">
+      <c r="H163" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="61"/>
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="58"/>
-      <c r="E164" s="58"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="67" t="s">
+      <c r="A164" s="49"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="H164" s="68" t="s">
+      <c r="H164" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="61"/>
-      <c r="B165" s="65"/>
-      <c r="C165" s="65"/>
-      <c r="D165" s="65"/>
-      <c r="E165" s="65"/>
-      <c r="F165" s="20" t="s">
+      <c r="A165" s="49"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="G165" s="65"/>
-      <c r="H165" s="66" t="s">
+      <c r="G165" s="15"/>
+      <c r="H165" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="61"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="67" t="s">
+      <c r="A166" s="49"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H166" s="68" t="s">
+      <c r="H166" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="61"/>
-      <c r="B167" s="65"/>
-      <c r="C167" s="65"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="65"/>
-      <c r="F167" s="65"/>
-      <c r="G167" s="64" t="s">
+      <c r="A167" s="49"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="H167" s="66" t="s">
+      <c r="H167" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="61"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="18" t="s">
+      <c r="A168" s="49"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="G168" s="58"/>
-      <c r="H168" s="68" t="s">
+      <c r="G168" s="13"/>
+      <c r="H168" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="61"/>
-      <c r="B169" s="65"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="65"/>
-      <c r="F169" s="65"/>
-      <c r="G169" s="64" t="s">
+      <c r="A169" s="49"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H169" s="66" t="s">
+      <c r="H169" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="61"/>
-      <c r="B170" s="58"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="58"/>
-      <c r="F170" s="58"/>
-      <c r="G170" s="67" t="s">
+      <c r="A170" s="49"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H170" s="68" t="s">
+      <c r="H170" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="61"/>
-      <c r="B171" s="65"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="20" t="s">
+      <c r="A171" s="49"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="F171" s="19"/>
-      <c r="G171" s="65"/>
-      <c r="H171" s="66" t="s">
+      <c r="F171" s="71"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="51" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="61"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="18" t="s">
+      <c r="A172" s="49"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="G172" s="58"/>
-      <c r="H172" s="68" t="s">
+      <c r="G172" s="13"/>
+      <c r="H172" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="61"/>
-      <c r="B173" s="65"/>
-      <c r="C173" s="65"/>
-      <c r="D173" s="65"/>
-      <c r="E173" s="65"/>
-      <c r="F173" s="65"/>
-      <c r="G173" s="64" t="s">
+      <c r="A173" s="49"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="H173" s="66" t="s">
+      <c r="H173" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="61"/>
-      <c r="B174" s="58"/>
-      <c r="C174" s="58"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="67" t="s">
+      <c r="A174" s="49"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="H174" s="68" t="s">
+      <c r="H174" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="61"/>
-      <c r="B175" s="65"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="65"/>
-      <c r="F175" s="20" t="s">
+      <c r="A175" s="49"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="G175" s="65"/>
-      <c r="H175" s="66" t="s">
+      <c r="G175" s="15"/>
+      <c r="H175" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="61"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="58"/>
-      <c r="F176" s="58"/>
-      <c r="G176" s="67" t="s">
+      <c r="A176" s="49"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="H176" s="68" t="s">
+      <c r="H176" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="61"/>
-      <c r="B177" s="65"/>
-      <c r="C177" s="65"/>
-      <c r="D177" s="65"/>
-      <c r="E177" s="65"/>
-      <c r="F177" s="65"/>
-      <c r="G177" s="64" t="s">
+      <c r="A177" s="49"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="H177" s="66" t="s">
+      <c r="H177" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="61"/>
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="18" t="s">
+      <c r="A178" s="49"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="G178" s="58"/>
-      <c r="H178" s="68" t="s">
+      <c r="G178" s="13"/>
+      <c r="H178" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="61"/>
-      <c r="B179" s="65"/>
-      <c r="C179" s="65"/>
-      <c r="D179" s="65"/>
-      <c r="E179" s="65"/>
-      <c r="F179" s="65"/>
-      <c r="G179" s="64" t="s">
+      <c r="A179" s="49"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="H179" s="66" t="s">
+      <c r="H179" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="61"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="67" t="s">
+      <c r="A180" s="49"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="H180" s="68" t="s">
+      <c r="H180" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="61"/>
-      <c r="B181" s="65"/>
-      <c r="C181" s="65"/>
-      <c r="D181" s="65"/>
-      <c r="E181" s="65"/>
-      <c r="F181" s="20" t="s">
+      <c r="A181" s="49"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="G181" s="65"/>
-      <c r="H181" s="66" t="s">
+      <c r="G181" s="15"/>
+      <c r="H181" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="61"/>
-      <c r="B182" s="58"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="58"/>
-      <c r="E182" s="58"/>
-      <c r="F182" s="58"/>
-      <c r="G182" s="67" t="s">
+      <c r="A182" s="49"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="H182" s="68" t="s">
+      <c r="H182" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="61"/>
-      <c r="B183" s="65"/>
-      <c r="C183" s="65"/>
-      <c r="D183" s="65"/>
-      <c r="E183" s="65"/>
-      <c r="F183" s="65"/>
-      <c r="G183" s="64" t="s">
+      <c r="A183" s="49"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="H183" s="66" t="s">
+      <c r="H183" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="61"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="58"/>
-      <c r="F184" s="18" t="s">
+      <c r="A184" s="49"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="G184" s="58"/>
-      <c r="H184" s="68" t="s">
+      <c r="G184" s="13"/>
+      <c r="H184" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="61"/>
-      <c r="B185" s="65"/>
-      <c r="C185" s="65"/>
-      <c r="D185" s="65"/>
-      <c r="E185" s="65"/>
-      <c r="F185" s="65"/>
-      <c r="G185" s="64" t="s">
+      <c r="A185" s="49"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="H185" s="66" t="s">
+      <c r="H185" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="61"/>
-      <c r="B186" s="58"/>
-      <c r="C186" s="58"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="67" t="s">
+      <c r="A186" s="49"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H186" s="68" t="s">
+      <c r="H186" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="61"/>
-      <c r="B187" s="65"/>
-      <c r="C187" s="65"/>
-      <c r="D187" s="20" t="s">
+      <c r="A187" s="49"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="65"/>
-      <c r="H187" s="66" t="s">
+      <c r="E187" s="71"/>
+      <c r="F187" s="71"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="61"/>
-      <c r="B188" s="58"/>
-      <c r="C188" s="58"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="18" t="s">
+      <c r="A188" s="49"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="F188" s="17"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="68" t="s">
+      <c r="F188" s="73"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="52" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="61"/>
-      <c r="B189" s="65"/>
-      <c r="C189" s="65"/>
-      <c r="D189" s="65"/>
-      <c r="E189" s="65"/>
-      <c r="F189" s="20" t="s">
+      <c r="A189" s="49"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="G189" s="65"/>
-      <c r="H189" s="66" t="s">
+      <c r="G189" s="15"/>
+      <c r="H189" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="61"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="67" t="s">
+      <c r="A190" s="49"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="H190" s="68" t="s">
+      <c r="H190" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="61"/>
-      <c r="B191" s="65"/>
-      <c r="C191" s="65"/>
-      <c r="D191" s="65"/>
-      <c r="E191" s="65"/>
-      <c r="F191" s="65"/>
-      <c r="G191" s="64" t="s">
+      <c r="A191" s="49"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="H191" s="66" t="s">
+      <c r="H191" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="61"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
-      <c r="D192" s="18" t="s">
+      <c r="A192" s="49"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="E192" s="17"/>
-      <c r="F192" s="17"/>
-      <c r="G192" s="67" t="s">
+      <c r="E192" s="73"/>
+      <c r="F192" s="73"/>
+      <c r="G192" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H192" s="68" t="s">
+      <c r="H192" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="61"/>
-      <c r="B193" s="65"/>
-      <c r="C193" s="20" t="s">
+      <c r="A193" s="49"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="65"/>
-      <c r="H193" s="66" t="s">
+      <c r="D193" s="71"/>
+      <c r="E193" s="71"/>
+      <c r="F193" s="71"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="194" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="61"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="18" t="s">
+      <c r="A194" s="49"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="E194" s="17"/>
-      <c r="F194" s="17"/>
-      <c r="G194" s="67" t="s">
+      <c r="E194" s="73"/>
+      <c r="F194" s="73"/>
+      <c r="G194" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H194" s="68" t="s">
+      <c r="H194" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="74"/>
-      <c r="B195" s="77"/>
-      <c r="C195" s="77"/>
-      <c r="D195" s="4" t="s">
+      <c r="A195" s="55"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="87" t="s">
+      <c r="E195" s="75"/>
+      <c r="F195" s="75"/>
+      <c r="G195" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H195" s="88" t="s">
+      <c r="H195" s="63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="61"/>
-      <c r="B196" s="93"/>
-      <c r="C196" s="93"/>
-      <c r="D196" s="93"/>
-      <c r="E196" s="93"/>
-      <c r="F196" s="93"/>
-      <c r="G196" s="93"/>
-      <c r="H196" s="94"/>
+      <c r="A196" s="49"/>
+      <c r="B196" s="66"/>
+      <c r="C196" s="66"/>
+      <c r="D196" s="66"/>
+      <c r="E196" s="66"/>
+      <c r="F196" s="66"/>
+      <c r="G196" s="66"/>
+      <c r="H196" s="67"/>
     </row>
     <row r="197" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="B197" s="21"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="79" t="s">
+      <c r="B197" s="77"/>
+      <c r="C197" s="77"/>
+      <c r="D197" s="77"/>
+      <c r="E197" s="77"/>
+      <c r="F197" s="77"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="58" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="198" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="61"/>
-      <c r="B198" s="8" t="s">
+      <c r="A198" s="49"/>
+      <c r="B198" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="17"/>
-      <c r="G198" s="58"/>
-      <c r="H198" s="81" t="s">
+      <c r="C198" s="73"/>
+      <c r="D198" s="73"/>
+      <c r="E198" s="73"/>
+      <c r="F198" s="73"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="59" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="61"/>
-      <c r="B199" s="65"/>
-      <c r="C199" s="15" t="s">
+      <c r="A199" s="49"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="69" t="s">
+      <c r="D199" s="71"/>
+      <c r="E199" s="71"/>
+      <c r="F199" s="71"/>
+      <c r="G199" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="H199" s="70" t="s">
+      <c r="H199" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="61"/>
-      <c r="B200" s="58"/>
-      <c r="C200" s="16" t="s">
+      <c r="A200" s="49"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="17"/>
-      <c r="G200" s="59" t="s">
+      <c r="D200" s="73"/>
+      <c r="E200" s="73"/>
+      <c r="F200" s="73"/>
+      <c r="G200" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H200" s="60" t="s">
+      <c r="H200" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="61"/>
-      <c r="B201" s="65"/>
-      <c r="C201" s="15" t="s">
+      <c r="A201" s="49"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="69" t="s">
+      <c r="D201" s="71"/>
+      <c r="E201" s="71"/>
+      <c r="F201" s="71"/>
+      <c r="G201" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="H201" s="70" t="s">
+      <c r="H201" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="61"/>
-      <c r="B202" s="58"/>
-      <c r="C202" s="16" t="s">
+      <c r="A202" s="49"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="17"/>
-      <c r="G202" s="59" t="s">
+      <c r="D202" s="73"/>
+      <c r="E202" s="73"/>
+      <c r="F202" s="73"/>
+      <c r="G202" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="H202" s="60" t="s">
+      <c r="H202" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="61"/>
-      <c r="B203" s="65"/>
-      <c r="C203" s="15" t="s">
+      <c r="A203" s="49"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="69" t="s">
+      <c r="D203" s="71"/>
+      <c r="E203" s="71"/>
+      <c r="F203" s="71"/>
+      <c r="G203" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="H203" s="70" t="s">
+      <c r="H203" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="61"/>
-      <c r="B204" s="58"/>
-      <c r="C204" s="8" t="s">
+      <c r="A204" s="49"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="17"/>
-      <c r="G204" s="80" t="s">
+      <c r="D204" s="73"/>
+      <c r="E204" s="73"/>
+      <c r="F204" s="73"/>
+      <c r="G204" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H204" s="81" t="s">
+      <c r="H204" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="61"/>
-      <c r="B205" s="65"/>
-      <c r="C205" s="7" t="s">
+      <c r="A205" s="49"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="82" t="s">
+      <c r="D205" s="71"/>
+      <c r="E205" s="71"/>
+      <c r="F205" s="71"/>
+      <c r="G205" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H205" s="83" t="s">
+      <c r="H205" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="61"/>
-      <c r="B206" s="58"/>
-      <c r="C206" s="8" t="s">
+      <c r="A206" s="49"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="17"/>
-      <c r="G206" s="80" t="s">
+      <c r="D206" s="73"/>
+      <c r="E206" s="73"/>
+      <c r="F206" s="73"/>
+      <c r="G206" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H206" s="81" t="s">
+      <c r="H206" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="61"/>
-      <c r="B207" s="65"/>
-      <c r="C207" s="7" t="s">
+      <c r="A207" s="49"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="82" t="s">
+      <c r="D207" s="71"/>
+      <c r="E207" s="71"/>
+      <c r="F207" s="71"/>
+      <c r="G207" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H207" s="83" t="s">
+      <c r="H207" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="61"/>
-      <c r="B208" s="58"/>
-      <c r="C208" s="8" t="s">
+      <c r="A208" s="49"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="80" t="s">
+      <c r="D208" s="73"/>
+      <c r="E208" s="73"/>
+      <c r="F208" s="73"/>
+      <c r="G208" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H208" s="81" t="s">
+      <c r="H208" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="61"/>
-      <c r="B209" s="65"/>
-      <c r="C209" s="7" t="s">
+      <c r="A209" s="49"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="82" t="s">
+      <c r="D209" s="71"/>
+      <c r="E209" s="71"/>
+      <c r="F209" s="71"/>
+      <c r="G209" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H209" s="83" t="s">
+      <c r="H209" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="61"/>
-      <c r="B210" s="58"/>
-      <c r="C210" s="8" t="s">
+      <c r="A210" s="49"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="17"/>
-      <c r="G210" s="80" t="s">
+      <c r="D210" s="73"/>
+      <c r="E210" s="73"/>
+      <c r="F210" s="73"/>
+      <c r="G210" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H210" s="81" t="s">
+      <c r="H210" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="61"/>
-      <c r="B211" s="65"/>
-      <c r="C211" s="7" t="s">
+      <c r="A211" s="49"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="82" t="s">
+      <c r="D211" s="71"/>
+      <c r="E211" s="71"/>
+      <c r="F211" s="71"/>
+      <c r="G211" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H211" s="83" t="s">
+      <c r="H211" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="61"/>
-      <c r="B212" s="58"/>
-      <c r="C212" s="8" t="s">
+      <c r="A212" s="49"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="17"/>
-      <c r="G212" s="80" t="s">
+      <c r="D212" s="73"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="73"/>
+      <c r="G212" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H212" s="81" t="s">
+      <c r="H212" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="61"/>
-      <c r="B213" s="65"/>
-      <c r="C213" s="7" t="s">
+      <c r="A213" s="49"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="88" t="s">
         <v>286</v>
       </c>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="82" t="s">
+      <c r="D213" s="71"/>
+      <c r="E213" s="71"/>
+      <c r="F213" s="71"/>
+      <c r="G213" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H213" s="83" t="s">
+      <c r="H213" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="61"/>
-      <c r="B214" s="58"/>
-      <c r="C214" s="16" t="s">
+      <c r="A214" s="49"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
-      <c r="F214" s="17"/>
-      <c r="G214" s="59" t="s">
+      <c r="D214" s="73"/>
+      <c r="E214" s="73"/>
+      <c r="F214" s="73"/>
+      <c r="G214" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="H214" s="60" t="s">
+      <c r="H214" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="61"/>
-      <c r="B215" s="65"/>
-      <c r="C215" s="7" t="s">
+      <c r="A215" s="49"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="82" t="s">
+      <c r="D215" s="71"/>
+      <c r="E215" s="71"/>
+      <c r="F215" s="71"/>
+      <c r="G215" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="H215" s="83" t="s">
+      <c r="H215" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="61"/>
-      <c r="B216" s="58"/>
-      <c r="C216" s="8" t="s">
+      <c r="A216" s="49"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="17"/>
-      <c r="G216" s="80" t="s">
+      <c r="D216" s="73"/>
+      <c r="E216" s="73"/>
+      <c r="F216" s="73"/>
+      <c r="G216" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H216" s="81" t="s">
+      <c r="H216" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="61"/>
-      <c r="B217" s="65"/>
-      <c r="C217" s="7" t="s">
+      <c r="A217" s="49"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="82" t="s">
+      <c r="D217" s="71"/>
+      <c r="E217" s="71"/>
+      <c r="F217" s="71"/>
+      <c r="G217" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H217" s="83" t="s">
+      <c r="H217" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="218" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="61"/>
-      <c r="B218" s="58"/>
-      <c r="C218" s="16" t="s">
+      <c r="A218" s="49"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="17"/>
-      <c r="G218" s="59" t="s">
+      <c r="D218" s="73"/>
+      <c r="E218" s="73"/>
+      <c r="F218" s="73"/>
+      <c r="G218" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="H218" s="60" t="s">
+      <c r="H218" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="219" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="61"/>
-      <c r="B219" s="65"/>
-      <c r="C219" s="15" t="s">
+      <c r="A219" s="49"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="69" t="s">
+      <c r="D219" s="71"/>
+      <c r="E219" s="71"/>
+      <c r="F219" s="71"/>
+      <c r="G219" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H219" s="70" t="s">
+      <c r="H219" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="61"/>
-      <c r="B220" s="58"/>
-      <c r="C220" s="8" t="s">
+      <c r="A220" s="49"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="D220" s="17"/>
-      <c r="E220" s="17"/>
-      <c r="F220" s="17"/>
-      <c r="G220" s="80" t="s">
+      <c r="D220" s="73"/>
+      <c r="E220" s="73"/>
+      <c r="F220" s="73"/>
+      <c r="G220" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H220" s="81" t="s">
+      <c r="H220" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="61"/>
-      <c r="B221" s="65"/>
-      <c r="C221" s="7" t="s">
+      <c r="A221" s="49"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="19"/>
-      <c r="G221" s="82" t="s">
+      <c r="D221" s="71"/>
+      <c r="E221" s="71"/>
+      <c r="F221" s="71"/>
+      <c r="G221" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H221" s="83" t="s">
+      <c r="H221" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="61"/>
-      <c r="B222" s="58"/>
-      <c r="C222" s="8" t="s">
+      <c r="A222" s="49"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
-      <c r="F222" s="17"/>
-      <c r="G222" s="58"/>
-      <c r="H222" s="81" t="s">
+      <c r="D222" s="73"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="73"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="59" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="61"/>
-      <c r="B223" s="65"/>
-      <c r="C223" s="65"/>
-      <c r="D223" s="15" t="s">
+      <c r="A223" s="49"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="69" t="s">
+      <c r="E223" s="71"/>
+      <c r="F223" s="71"/>
+      <c r="G223" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H223" s="70" t="s">
+      <c r="H223" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="61"/>
-      <c r="B224" s="58"/>
-      <c r="C224" s="58"/>
-      <c r="D224" s="8" t="s">
+      <c r="A224" s="49"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="E224" s="17"/>
-      <c r="F224" s="17"/>
-      <c r="G224" s="80" t="s">
+      <c r="E224" s="73"/>
+      <c r="F224" s="73"/>
+      <c r="G224" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H224" s="81" t="s">
+      <c r="H224" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="61"/>
-      <c r="B225" s="65"/>
-      <c r="C225" s="7" t="s">
+      <c r="A225" s="49"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="19"/>
-      <c r="G225" s="82" t="s">
+      <c r="D225" s="71"/>
+      <c r="E225" s="71"/>
+      <c r="F225" s="71"/>
+      <c r="G225" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H225" s="83" t="s">
+      <c r="H225" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="61"/>
-      <c r="B226" s="58"/>
-      <c r="C226" s="8" t="s">
+      <c r="A226" s="49"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="D226" s="17"/>
-      <c r="E226" s="17"/>
-      <c r="F226" s="17"/>
-      <c r="G226" s="58"/>
-      <c r="H226" s="81" t="s">
+      <c r="D226" s="73"/>
+      <c r="E226" s="73"/>
+      <c r="F226" s="73"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="59" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="61"/>
-      <c r="B227" s="65"/>
-      <c r="C227" s="65"/>
-      <c r="D227" s="15" t="s">
+      <c r="A227" s="49"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E227" s="19"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="69" t="s">
+      <c r="E227" s="71"/>
+      <c r="F227" s="71"/>
+      <c r="G227" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="H227" s="70" t="s">
+      <c r="H227" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="61"/>
-      <c r="B228" s="58"/>
-      <c r="C228" s="58"/>
-      <c r="D228" s="8" t="s">
+      <c r="A228" s="49"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="E228" s="17"/>
-      <c r="F228" s="17"/>
-      <c r="G228" s="80" t="s">
+      <c r="E228" s="73"/>
+      <c r="F228" s="73"/>
+      <c r="G228" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H228" s="81" t="s">
+      <c r="H228" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="61"/>
-      <c r="B229" s="65"/>
-      <c r="C229" s="7" t="s">
+      <c r="A229" s="49"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="82" t="s">
+      <c r="D229" s="71"/>
+      <c r="E229" s="71"/>
+      <c r="F229" s="71"/>
+      <c r="G229" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H229" s="83" t="s">
+      <c r="H229" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="61"/>
-      <c r="B230" s="58"/>
-      <c r="C230" s="8" t="s">
+      <c r="A230" s="49"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="58"/>
-      <c r="H230" s="81" t="s">
+      <c r="D230" s="73"/>
+      <c r="E230" s="73"/>
+      <c r="F230" s="73"/>
+      <c r="G230" s="13"/>
+      <c r="H230" s="59" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="231" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="61"/>
-      <c r="B231" s="65"/>
-      <c r="C231" s="65"/>
-      <c r="D231" s="15" t="s">
+      <c r="A231" s="49"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E231" s="19"/>
-      <c r="F231" s="19"/>
-      <c r="G231" s="69" t="s">
+      <c r="E231" s="71"/>
+      <c r="F231" s="71"/>
+      <c r="G231" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="H231" s="70" t="s">
+      <c r="H231" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="61"/>
-      <c r="B232" s="58"/>
-      <c r="C232" s="58"/>
-      <c r="D232" s="8" t="s">
+      <c r="A232" s="49"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="E232" s="17"/>
-      <c r="F232" s="17"/>
-      <c r="G232" s="80" t="s">
+      <c r="E232" s="73"/>
+      <c r="F232" s="73"/>
+      <c r="G232" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H232" s="81" t="s">
+      <c r="H232" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="61"/>
-      <c r="B233" s="65"/>
-      <c r="C233" s="7" t="s">
+      <c r="A233" s="49"/>
+      <c r="B233" s="15"/>
+      <c r="C233" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="19"/>
-      <c r="G233" s="82" t="s">
+      <c r="D233" s="71"/>
+      <c r="E233" s="71"/>
+      <c r="F233" s="71"/>
+      <c r="G233" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H233" s="83" t="s">
+      <c r="H233" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="61"/>
-      <c r="B234" s="58"/>
-      <c r="C234" s="8" t="s">
+      <c r="A234" s="49"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="87" t="s">
         <v>309</v>
       </c>
-      <c r="D234" s="17"/>
-      <c r="E234" s="17"/>
-      <c r="F234" s="17"/>
-      <c r="G234" s="80" t="s">
+      <c r="D234" s="73"/>
+      <c r="E234" s="73"/>
+      <c r="F234" s="73"/>
+      <c r="G234" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H234" s="81" t="s">
+      <c r="H234" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="61"/>
-      <c r="B235" s="65"/>
-      <c r="C235" s="7" t="s">
+      <c r="A235" s="49"/>
+      <c r="B235" s="15"/>
+      <c r="C235" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D235" s="19"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="82" t="s">
+      <c r="D235" s="71"/>
+      <c r="E235" s="71"/>
+      <c r="F235" s="71"/>
+      <c r="G235" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H235" s="83" t="s">
+      <c r="H235" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="61"/>
-      <c r="B236" s="58"/>
-      <c r="C236" s="8" t="s">
+      <c r="A236" s="49"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D236" s="17"/>
-      <c r="E236" s="17"/>
-      <c r="F236" s="17"/>
-      <c r="G236" s="80" t="s">
+      <c r="D236" s="73"/>
+      <c r="E236" s="73"/>
+      <c r="F236" s="73"/>
+      <c r="G236" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H236" s="81" t="s">
+      <c r="H236" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="61"/>
-      <c r="B237" s="65"/>
-      <c r="C237" s="7" t="s">
+      <c r="A237" s="49"/>
+      <c r="B237" s="15"/>
+      <c r="C237" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="82" t="s">
+      <c r="D237" s="71"/>
+      <c r="E237" s="71"/>
+      <c r="F237" s="71"/>
+      <c r="G237" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H237" s="83" t="s">
+      <c r="H237" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="61"/>
-      <c r="B238" s="58"/>
-      <c r="C238" s="8" t="s">
+      <c r="A238" s="49"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17"/>
-      <c r="F238" s="17"/>
-      <c r="G238" s="80" t="s">
+      <c r="D238" s="73"/>
+      <c r="E238" s="73"/>
+      <c r="F238" s="73"/>
+      <c r="G238" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H238" s="81" t="s">
+      <c r="H238" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="61"/>
-      <c r="B239" s="65"/>
-      <c r="C239" s="7" t="s">
+      <c r="A239" s="49"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="19"/>
-      <c r="G239" s="82" t="s">
+      <c r="D239" s="71"/>
+      <c r="E239" s="71"/>
+      <c r="F239" s="71"/>
+      <c r="G239" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H239" s="83" t="s">
+      <c r="H239" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="61"/>
-      <c r="B240" s="58"/>
-      <c r="C240" s="8" t="s">
+      <c r="A240" s="49"/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="87" t="s">
         <v>310</v>
       </c>
-      <c r="D240" s="17"/>
-      <c r="E240" s="17"/>
-      <c r="F240" s="17"/>
-      <c r="G240" s="80" t="s">
+      <c r="D240" s="73"/>
+      <c r="E240" s="73"/>
+      <c r="F240" s="73"/>
+      <c r="G240" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H240" s="81" t="s">
+      <c r="H240" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="61"/>
-      <c r="B241" s="65"/>
-      <c r="C241" s="15" t="s">
+      <c r="A241" s="49"/>
+      <c r="B241" s="15"/>
+      <c r="C241" s="83" t="s">
         <v>311</v>
       </c>
-      <c r="D241" s="19"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="19"/>
-      <c r="G241" s="69" t="s">
+      <c r="D241" s="71"/>
+      <c r="E241" s="71"/>
+      <c r="F241" s="71"/>
+      <c r="G241" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H241" s="70" t="s">
+      <c r="H241" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="61"/>
-      <c r="B242" s="58"/>
-      <c r="C242" s="16" t="s">
+      <c r="A242" s="49"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="D242" s="17"/>
-      <c r="E242" s="17"/>
-      <c r="F242" s="17"/>
-      <c r="G242" s="59" t="s">
+      <c r="D242" s="73"/>
+      <c r="E242" s="73"/>
+      <c r="F242" s="73"/>
+      <c r="G242" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="H242" s="60" t="s">
+      <c r="H242" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="61"/>
-      <c r="B243" s="65"/>
-      <c r="C243" s="15" t="s">
+      <c r="A243" s="49"/>
+      <c r="B243" s="15"/>
+      <c r="C243" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="69" t="s">
+      <c r="D243" s="71"/>
+      <c r="E243" s="71"/>
+      <c r="F243" s="71"/>
+      <c r="G243" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H243" s="70" t="s">
+      <c r="H243" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="61"/>
-      <c r="B244" s="58"/>
-      <c r="C244" s="16" t="s">
+      <c r="A244" s="49"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="59" t="s">
+      <c r="D244" s="73"/>
+      <c r="E244" s="73"/>
+      <c r="F244" s="73"/>
+      <c r="G244" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="H244" s="60" t="s">
+      <c r="H244" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="61"/>
-      <c r="B245" s="65"/>
-      <c r="C245" s="15" t="s">
+      <c r="A245" s="49"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="19"/>
-      <c r="G245" s="69" t="s">
+      <c r="D245" s="71"/>
+      <c r="E245" s="71"/>
+      <c r="F245" s="71"/>
+      <c r="G245" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H245" s="70" t="s">
+      <c r="H245" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="61"/>
-      <c r="B246" s="58"/>
-      <c r="C246" s="16" t="s">
+      <c r="A246" s="49"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="D246" s="17"/>
-      <c r="E246" s="17"/>
-      <c r="F246" s="17"/>
-      <c r="G246" s="59" t="s">
+      <c r="D246" s="73"/>
+      <c r="E246" s="73"/>
+      <c r="F246" s="73"/>
+      <c r="G246" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="H246" s="60" t="s">
+      <c r="H246" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="61"/>
-      <c r="B247" s="65"/>
-      <c r="C247" s="15" t="s">
+      <c r="A247" s="49"/>
+      <c r="B247" s="15"/>
+      <c r="C247" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="D247" s="19"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="19"/>
-      <c r="G247" s="69" t="s">
+      <c r="D247" s="71"/>
+      <c r="E247" s="71"/>
+      <c r="F247" s="71"/>
+      <c r="G247" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H247" s="70" t="s">
+      <c r="H247" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="61"/>
-      <c r="B248" s="58"/>
-      <c r="C248" s="16" t="s">
+      <c r="A248" s="49"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17"/>
-      <c r="F248" s="17"/>
-      <c r="G248" s="59" t="s">
+      <c r="D248" s="73"/>
+      <c r="E248" s="73"/>
+      <c r="F248" s="73"/>
+      <c r="G248" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="H248" s="60" t="s">
+      <c r="H248" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="61"/>
-      <c r="B249" s="65"/>
-      <c r="C249" s="15" t="s">
+      <c r="A249" s="49"/>
+      <c r="B249" s="15"/>
+      <c r="C249" s="83" t="s">
         <v>323</v>
       </c>
-      <c r="D249" s="19"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="19"/>
-      <c r="G249" s="69" t="s">
+      <c r="D249" s="71"/>
+      <c r="E249" s="71"/>
+      <c r="F249" s="71"/>
+      <c r="G249" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H249" s="70" t="s">
+      <c r="H249" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="61"/>
-      <c r="B250" s="58"/>
-      <c r="C250" s="16" t="s">
+      <c r="A250" s="49"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="82" t="s">
         <v>325</v>
       </c>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="17"/>
-      <c r="G250" s="59" t="s">
+      <c r="D250" s="73"/>
+      <c r="E250" s="73"/>
+      <c r="F250" s="73"/>
+      <c r="G250" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="H250" s="60" t="s">
+      <c r="H250" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="61"/>
-      <c r="B251" s="65"/>
-      <c r="C251" s="15" t="s">
+      <c r="A251" s="49"/>
+      <c r="B251" s="15"/>
+      <c r="C251" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="D251" s="19"/>
-      <c r="E251" s="19"/>
-      <c r="F251" s="19"/>
-      <c r="G251" s="69" t="s">
+      <c r="D251" s="71"/>
+      <c r="E251" s="71"/>
+      <c r="F251" s="71"/>
+      <c r="G251" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="H251" s="70" t="s">
+      <c r="H251" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="61"/>
-      <c r="B252" s="58"/>
-      <c r="C252" s="16" t="s">
+      <c r="A252" s="49"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="82" t="s">
         <v>329</v>
       </c>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="17"/>
-      <c r="G252" s="59" t="s">
+      <c r="D252" s="73"/>
+      <c r="E252" s="73"/>
+      <c r="F252" s="73"/>
+      <c r="G252" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H252" s="60" t="s">
+      <c r="H252" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="61"/>
-      <c r="B253" s="65"/>
-      <c r="C253" s="15" t="s">
+      <c r="A253" s="49"/>
+      <c r="B253" s="15"/>
+      <c r="C253" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="69" t="s">
+      <c r="D253" s="71"/>
+      <c r="E253" s="71"/>
+      <c r="F253" s="71"/>
+      <c r="G253" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="H253" s="70" t="s">
+      <c r="H253" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="61"/>
-      <c r="B254" s="58"/>
-      <c r="C254" s="16" t="s">
+      <c r="A254" s="49"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="17"/>
-      <c r="G254" s="59" t="s">
+      <c r="D254" s="73"/>
+      <c r="E254" s="73"/>
+      <c r="F254" s="73"/>
+      <c r="G254" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="H254" s="60" t="s">
+      <c r="H254" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="61"/>
-      <c r="B255" s="65"/>
-      <c r="C255" s="15" t="s">
+      <c r="A255" s="49"/>
+      <c r="B255" s="15"/>
+      <c r="C255" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="D255" s="19"/>
-      <c r="E255" s="19"/>
-      <c r="F255" s="19"/>
-      <c r="G255" s="69" t="s">
+      <c r="D255" s="71"/>
+      <c r="E255" s="71"/>
+      <c r="F255" s="71"/>
+      <c r="G255" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="H255" s="70" t="s">
+      <c r="H255" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="61"/>
-      <c r="B256" s="58"/>
-      <c r="C256" s="16" t="s">
+      <c r="A256" s="49"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="D256" s="17"/>
-      <c r="E256" s="17"/>
-      <c r="F256" s="17"/>
-      <c r="G256" s="59" t="s">
+      <c r="D256" s="73"/>
+      <c r="E256" s="73"/>
+      <c r="F256" s="73"/>
+      <c r="G256" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H256" s="60" t="s">
+      <c r="H256" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="61"/>
-      <c r="B257" s="65"/>
-      <c r="C257" s="15" t="s">
+      <c r="A257" s="49"/>
+      <c r="B257" s="15"/>
+      <c r="C257" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="D257" s="19"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="19"/>
-      <c r="G257" s="69" t="s">
+      <c r="D257" s="71"/>
+      <c r="E257" s="71"/>
+      <c r="F257" s="71"/>
+      <c r="G257" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="H257" s="70" t="s">
+      <c r="H257" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="61"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="16" t="s">
+      <c r="A258" s="49"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="D258" s="17"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="17"/>
-      <c r="G258" s="59" t="s">
+      <c r="D258" s="73"/>
+      <c r="E258" s="73"/>
+      <c r="F258" s="73"/>
+      <c r="G258" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H258" s="60" t="s">
+      <c r="H258" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="74"/>
-      <c r="B259" s="77"/>
-      <c r="C259" s="11" t="s">
+      <c r="A259" s="55"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
-      <c r="G259" s="76" t="s">
+      <c r="D259" s="75"/>
+      <c r="E259" s="75"/>
+      <c r="F259" s="75"/>
+      <c r="G259" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="H259" s="78" t="s">
+      <c r="H259" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="61"/>
-      <c r="B260" s="93"/>
-      <c r="C260" s="93"/>
-      <c r="D260" s="93"/>
-      <c r="E260" s="93"/>
-      <c r="F260" s="93"/>
-      <c r="G260" s="93"/>
-      <c r="H260" s="94"/>
+      <c r="A260" s="49"/>
+      <c r="B260" s="66"/>
+      <c r="C260" s="66"/>
+      <c r="D260" s="66"/>
+      <c r="E260" s="66"/>
+      <c r="F260" s="66"/>
+      <c r="G260" s="66"/>
+      <c r="H260" s="67"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="22" t="s">
+      <c r="A261" s="85" t="s">
         <v>340</v>
       </c>
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="21"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="62"/>
-      <c r="H261" s="63" t="s">
+      <c r="B261" s="77"/>
+      <c r="C261" s="77"/>
+      <c r="D261" s="77"/>
+      <c r="E261" s="77"/>
+      <c r="F261" s="77"/>
+      <c r="G261" s="17"/>
+      <c r="H261" s="50" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="74"/>
-      <c r="B262" s="3" t="s">
+      <c r="A262" s="55"/>
+      <c r="B262" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
-      <c r="F262" s="13"/>
-      <c r="G262" s="89" t="s">
+      <c r="C262" s="79"/>
+      <c r="D262" s="79"/>
+      <c r="E262" s="79"/>
+      <c r="F262" s="79"/>
+      <c r="G262" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H262" s="90" t="s">
+      <c r="H262" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="61"/>
-      <c r="B263" s="93"/>
-      <c r="C263" s="93"/>
-      <c r="D263" s="93"/>
-      <c r="E263" s="93"/>
-      <c r="F263" s="93"/>
-      <c r="G263" s="93"/>
-      <c r="H263" s="94"/>
+      <c r="A263" s="49"/>
+      <c r="B263" s="66"/>
+      <c r="C263" s="66"/>
+      <c r="D263" s="66"/>
+      <c r="E263" s="66"/>
+      <c r="F263" s="66"/>
+      <c r="G263" s="66"/>
+      <c r="H263" s="67"/>
     </row>
     <row r="264" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="22" t="s">
+      <c r="A264" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="B264" s="21"/>
-      <c r="C264" s="21"/>
-      <c r="D264" s="21"/>
-      <c r="E264" s="21"/>
-      <c r="F264" s="21"/>
-      <c r="G264" s="62"/>
-      <c r="H264" s="63" t="s">
+      <c r="B264" s="77"/>
+      <c r="C264" s="77"/>
+      <c r="D264" s="77"/>
+      <c r="E264" s="77"/>
+      <c r="F264" s="77"/>
+      <c r="G264" s="17"/>
+      <c r="H264" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="265" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="61"/>
-      <c r="B265" s="20" t="s">
+      <c r="A265" s="49"/>
+      <c r="B265" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="C265" s="19"/>
-      <c r="D265" s="19"/>
-      <c r="E265" s="19"/>
-      <c r="F265" s="19"/>
-      <c r="G265" s="65"/>
-      <c r="H265" s="66" t="s">
+      <c r="C265" s="71"/>
+      <c r="D265" s="71"/>
+      <c r="E265" s="71"/>
+      <c r="F265" s="71"/>
+      <c r="G265" s="15"/>
+      <c r="H265" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="61"/>
-      <c r="B266" s="58"/>
-      <c r="C266" s="18" t="s">
+      <c r="A266" s="49"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="17"/>
-      <c r="G266" s="67" t="s">
+      <c r="D266" s="73"/>
+      <c r="E266" s="73"/>
+      <c r="F266" s="73"/>
+      <c r="G266" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H266" s="68" t="s">
+      <c r="H266" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="61"/>
-      <c r="B267" s="65"/>
-      <c r="C267" s="20" t="s">
+      <c r="A267" s="49"/>
+      <c r="B267" s="15"/>
+      <c r="C267" s="70" t="s">
         <v>348</v>
       </c>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="19"/>
-      <c r="G267" s="64" t="s">
+      <c r="D267" s="71"/>
+      <c r="E267" s="71"/>
+      <c r="F267" s="71"/>
+      <c r="G267" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H267" s="66" t="s">
+      <c r="H267" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="61"/>
-      <c r="B268" s="58"/>
-      <c r="C268" s="18" t="s">
+      <c r="A268" s="49"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="D268" s="17"/>
-      <c r="E268" s="17"/>
-      <c r="F268" s="17"/>
-      <c r="G268" s="67" t="s">
+      <c r="D268" s="73"/>
+      <c r="E268" s="73"/>
+      <c r="F268" s="73"/>
+      <c r="G268" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H268" s="68" t="s">
+      <c r="H268" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="61"/>
-      <c r="B269" s="65"/>
-      <c r="C269" s="20" t="s">
+      <c r="A269" s="49"/>
+      <c r="B269" s="15"/>
+      <c r="C269" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="19"/>
-      <c r="G269" s="64" t="s">
+      <c r="D269" s="71"/>
+      <c r="E269" s="71"/>
+      <c r="F269" s="71"/>
+      <c r="G269" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H269" s="66" t="s">
+      <c r="H269" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="61"/>
-      <c r="B270" s="58"/>
-      <c r="C270" s="18" t="s">
+      <c r="A270" s="49"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="D270" s="17"/>
-      <c r="E270" s="17"/>
-      <c r="F270" s="17"/>
-      <c r="G270" s="67" t="s">
+      <c r="D270" s="73"/>
+      <c r="E270" s="73"/>
+      <c r="F270" s="73"/>
+      <c r="G270" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H270" s="68" t="s">
+      <c r="H270" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="61"/>
-      <c r="B271" s="65"/>
-      <c r="C271" s="20" t="s">
+      <c r="A271" s="49"/>
+      <c r="B271" s="15"/>
+      <c r="C271" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="19"/>
-      <c r="G271" s="64" t="s">
+      <c r="D271" s="71"/>
+      <c r="E271" s="71"/>
+      <c r="F271" s="71"/>
+      <c r="G271" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H271" s="66" t="s">
+      <c r="H271" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="61"/>
-      <c r="B272" s="58"/>
-      <c r="C272" s="18" t="s">
+      <c r="A272" s="49"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="D272" s="17"/>
-      <c r="E272" s="17"/>
-      <c r="F272" s="17"/>
-      <c r="G272" s="67" t="s">
+      <c r="D272" s="73"/>
+      <c r="E272" s="73"/>
+      <c r="F272" s="73"/>
+      <c r="G272" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H272" s="68" t="s">
+      <c r="H272" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="61"/>
-      <c r="B273" s="65"/>
-      <c r="C273" s="20" t="s">
+      <c r="A273" s="49"/>
+      <c r="B273" s="15"/>
+      <c r="C273" s="70" t="s">
         <v>354</v>
       </c>
-      <c r="D273" s="19"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="19"/>
-      <c r="G273" s="64" t="s">
+      <c r="D273" s="71"/>
+      <c r="E273" s="71"/>
+      <c r="F273" s="71"/>
+      <c r="G273" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H273" s="66" t="s">
+      <c r="H273" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="61"/>
-      <c r="B274" s="58"/>
-      <c r="C274" s="18" t="s">
+      <c r="A274" s="49"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D274" s="17"/>
-      <c r="E274" s="17"/>
-      <c r="F274" s="17"/>
-      <c r="G274" s="67" t="s">
+      <c r="D274" s="73"/>
+      <c r="E274" s="73"/>
+      <c r="F274" s="73"/>
+      <c r="G274" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H274" s="68" t="s">
+      <c r="H274" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="61"/>
-      <c r="B275" s="65"/>
-      <c r="C275" s="20" t="s">
+      <c r="A275" s="49"/>
+      <c r="B275" s="15"/>
+      <c r="C275" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="D275" s="19"/>
-      <c r="E275" s="19"/>
-      <c r="F275" s="19"/>
-      <c r="G275" s="64" t="s">
+      <c r="D275" s="71"/>
+      <c r="E275" s="71"/>
+      <c r="F275" s="71"/>
+      <c r="G275" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H275" s="66" t="s">
+      <c r="H275" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="61"/>
-      <c r="B276" s="58"/>
-      <c r="C276" s="18" t="s">
+      <c r="A276" s="49"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="D276" s="17"/>
-      <c r="E276" s="17"/>
-      <c r="F276" s="17"/>
-      <c r="G276" s="67" t="s">
+      <c r="D276" s="73"/>
+      <c r="E276" s="73"/>
+      <c r="F276" s="73"/>
+      <c r="G276" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H276" s="68" t="s">
+      <c r="H276" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="61"/>
-      <c r="B277" s="65"/>
-      <c r="C277" s="20" t="s">
+      <c r="A277" s="49"/>
+      <c r="B277" s="15"/>
+      <c r="C277" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
-      <c r="G277" s="64" t="s">
+      <c r="D277" s="71"/>
+      <c r="E277" s="71"/>
+      <c r="F277" s="71"/>
+      <c r="G277" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H277" s="66" t="s">
+      <c r="H277" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="61"/>
-      <c r="B278" s="58"/>
-      <c r="C278" s="18" t="s">
+      <c r="A278" s="49"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="D278" s="17"/>
-      <c r="E278" s="17"/>
-      <c r="F278" s="17"/>
-      <c r="G278" s="67" t="s">
+      <c r="D278" s="73"/>
+      <c r="E278" s="73"/>
+      <c r="F278" s="73"/>
+      <c r="G278" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H278" s="68" t="s">
+      <c r="H278" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="61"/>
-      <c r="B279" s="65"/>
-      <c r="C279" s="20" t="s">
+      <c r="A279" s="49"/>
+      <c r="B279" s="15"/>
+      <c r="C279" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="D279" s="19"/>
-      <c r="E279" s="19"/>
-      <c r="F279" s="19"/>
-      <c r="G279" s="64" t="s">
+      <c r="D279" s="71"/>
+      <c r="E279" s="71"/>
+      <c r="F279" s="71"/>
+      <c r="G279" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H279" s="66" t="s">
+      <c r="H279" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="61"/>
-      <c r="B280" s="58"/>
-      <c r="C280" s="18" t="s">
+      <c r="A280" s="49"/>
+      <c r="B280" s="13"/>
+      <c r="C280" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="D280" s="17"/>
-      <c r="E280" s="17"/>
-      <c r="F280" s="17"/>
-      <c r="G280" s="67" t="s">
+      <c r="D280" s="73"/>
+      <c r="E280" s="73"/>
+      <c r="F280" s="73"/>
+      <c r="G280" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H280" s="68" t="s">
+      <c r="H280" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="61"/>
-      <c r="B281" s="65"/>
-      <c r="C281" s="20" t="s">
+      <c r="A281" s="49"/>
+      <c r="B281" s="15"/>
+      <c r="C281" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="D281" s="19"/>
-      <c r="E281" s="19"/>
-      <c r="F281" s="19"/>
-      <c r="G281" s="64" t="s">
+      <c r="D281" s="71"/>
+      <c r="E281" s="71"/>
+      <c r="F281" s="71"/>
+      <c r="G281" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H281" s="66" t="s">
+      <c r="H281" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="61"/>
-      <c r="B282" s="58"/>
-      <c r="C282" s="18" t="s">
+      <c r="A282" s="49"/>
+      <c r="B282" s="13"/>
+      <c r="C282" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="D282" s="17"/>
-      <c r="E282" s="17"/>
-      <c r="F282" s="17"/>
-      <c r="G282" s="67" t="s">
+      <c r="D282" s="73"/>
+      <c r="E282" s="73"/>
+      <c r="F282" s="73"/>
+      <c r="G282" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H282" s="68" t="s">
+      <c r="H282" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="61"/>
-      <c r="B283" s="65"/>
-      <c r="C283" s="20" t="s">
+      <c r="A283" s="49"/>
+      <c r="B283" s="15"/>
+      <c r="C283" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="D283" s="19"/>
-      <c r="E283" s="19"/>
-      <c r="F283" s="19"/>
-      <c r="G283" s="64" t="s">
+      <c r="D283" s="71"/>
+      <c r="E283" s="71"/>
+      <c r="F283" s="71"/>
+      <c r="G283" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H283" s="66" t="s">
+      <c r="H283" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="61"/>
-      <c r="B284" s="58"/>
-      <c r="C284" s="18" t="s">
+      <c r="A284" s="49"/>
+      <c r="B284" s="13"/>
+      <c r="C284" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="D284" s="17"/>
-      <c r="E284" s="17"/>
-      <c r="F284" s="17"/>
-      <c r="G284" s="67" t="s">
+      <c r="D284" s="73"/>
+      <c r="E284" s="73"/>
+      <c r="F284" s="73"/>
+      <c r="G284" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H284" s="68" t="s">
+      <c r="H284" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="61"/>
-      <c r="B285" s="65"/>
-      <c r="C285" s="20" t="s">
+      <c r="A285" s="49"/>
+      <c r="B285" s="15"/>
+      <c r="C285" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="D285" s="19"/>
-      <c r="E285" s="19"/>
-      <c r="F285" s="19"/>
-      <c r="G285" s="64" t="s">
+      <c r="D285" s="71"/>
+      <c r="E285" s="71"/>
+      <c r="F285" s="71"/>
+      <c r="G285" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="H285" s="66" t="s">
+      <c r="H285" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="61"/>
-      <c r="B286" s="58"/>
-      <c r="C286" s="18" t="s">
+      <c r="A286" s="49"/>
+      <c r="B286" s="13"/>
+      <c r="C286" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="D286" s="17"/>
-      <c r="E286" s="17"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="67" t="s">
+      <c r="D286" s="73"/>
+      <c r="E286" s="73"/>
+      <c r="F286" s="73"/>
+      <c r="G286" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H286" s="68" t="s">
+      <c r="H286" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="74"/>
-      <c r="B287" s="77"/>
-      <c r="C287" s="4" t="s">
+      <c r="A287" s="55"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="D287" s="10"/>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="87" t="s">
+      <c r="D287" s="75"/>
+      <c r="E287" s="75"/>
+      <c r="F287" s="75"/>
+      <c r="G287" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="H287" s="88" t="s">
+      <c r="H287" s="63" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="61"/>
-      <c r="B288" s="93"/>
-      <c r="C288" s="93"/>
-      <c r="D288" s="93"/>
-      <c r="E288" s="93"/>
-      <c r="F288" s="93"/>
-      <c r="G288" s="93"/>
-      <c r="H288" s="94"/>
+      <c r="A288" s="49"/>
+      <c r="B288" s="66"/>
+      <c r="C288" s="66"/>
+      <c r="D288" s="66"/>
+      <c r="E288" s="66"/>
+      <c r="F288" s="66"/>
+      <c r="G288" s="66"/>
+      <c r="H288" s="67"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="12" t="s">
+      <c r="A289" s="76" t="s">
         <v>369</v>
       </c>
-      <c r="B289" s="21"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="21"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="62"/>
-      <c r="H289" s="75" t="s">
+      <c r="B289" s="77"/>
+      <c r="C289" s="77"/>
+      <c r="D289" s="77"/>
+      <c r="E289" s="77"/>
+      <c r="F289" s="77"/>
+      <c r="G289" s="17"/>
+      <c r="H289" s="56" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="74"/>
-      <c r="B290" s="14" t="s">
+      <c r="A290" s="55"/>
+      <c r="B290" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C290" s="13"/>
-      <c r="D290" s="13"/>
-      <c r="E290" s="13"/>
-      <c r="F290" s="13"/>
-      <c r="G290" s="72" t="s">
+      <c r="C290" s="79"/>
+      <c r="D290" s="79"/>
+      <c r="E290" s="79"/>
+      <c r="F290" s="79"/>
+      <c r="G290" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="H290" s="73" t="s">
+      <c r="H290" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="61"/>
-      <c r="B291" s="93"/>
-      <c r="C291" s="93"/>
-      <c r="D291" s="93"/>
-      <c r="E291" s="93"/>
-      <c r="F291" s="93"/>
-      <c r="G291" s="93"/>
-      <c r="H291" s="94"/>
+      <c r="A291" s="49"/>
+      <c r="B291" s="66"/>
+      <c r="C291" s="66"/>
+      <c r="D291" s="66"/>
+      <c r="E291" s="66"/>
+      <c r="F291" s="66"/>
+      <c r="G291" s="66"/>
+      <c r="H291" s="67"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="12" t="s">
+      <c r="A292" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="B292" s="21"/>
-      <c r="C292" s="21"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="21"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="62"/>
-      <c r="H292" s="75" t="s">
+      <c r="B292" s="77"/>
+      <c r="C292" s="77"/>
+      <c r="D292" s="77"/>
+      <c r="E292" s="77"/>
+      <c r="F292" s="77"/>
+      <c r="G292" s="17"/>
+      <c r="H292" s="56" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="56"/>
-      <c r="B293" s="2" t="s">
+      <c r="A293" s="46"/>
+      <c r="B293" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-      <c r="G293" s="91" t="s">
+      <c r="C293" s="81"/>
+      <c r="D293" s="81"/>
+      <c r="E293" s="81"/>
+      <c r="F293" s="81"/>
+      <c r="G293" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H293" s="92" t="s">
+      <c r="H293" s="65" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="F144"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="F149"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="F156"/>
+    <mergeCell ref="F159"/>
+    <mergeCell ref="F162"/>
+    <mergeCell ref="F165"/>
+    <mergeCell ref="F168"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="F172"/>
+    <mergeCell ref="F175"/>
+    <mergeCell ref="F178"/>
+    <mergeCell ref="F181"/>
+    <mergeCell ref="F184"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="F189"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="C208:F208"/>
+    <mergeCell ref="C209:F209"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C213:F213"/>
+    <mergeCell ref="C214:F214"/>
+    <mergeCell ref="C215:F215"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C217:F217"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="C219:F219"/>
+    <mergeCell ref="C220:F220"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C222:F222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="C225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="C234:F234"/>
+    <mergeCell ref="C235:F235"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="C237:F237"/>
+    <mergeCell ref="C238:F238"/>
+    <mergeCell ref="C239:F239"/>
+    <mergeCell ref="C240:F240"/>
+    <mergeCell ref="C241:F241"/>
+    <mergeCell ref="C242:F242"/>
+    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="C244:F244"/>
+    <mergeCell ref="C245:F245"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="C247:F247"/>
+    <mergeCell ref="C248:F248"/>
+    <mergeCell ref="C249:F249"/>
+    <mergeCell ref="C250:F250"/>
+    <mergeCell ref="C251:F251"/>
+    <mergeCell ref="C252:F252"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="C254:F254"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="C256:F256"/>
+    <mergeCell ref="C257:F257"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="A261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="C266:F266"/>
+    <mergeCell ref="C267:F267"/>
+    <mergeCell ref="C268:F268"/>
+    <mergeCell ref="C269:F269"/>
+    <mergeCell ref="C270:F270"/>
+    <mergeCell ref="C271:F271"/>
+    <mergeCell ref="C272:F272"/>
+    <mergeCell ref="C273:F273"/>
+    <mergeCell ref="C274:F274"/>
+    <mergeCell ref="C275:F275"/>
     <mergeCell ref="C285:F285"/>
     <mergeCell ref="C286:F286"/>
     <mergeCell ref="C287:F287"/>
@@ -7969,249 +8230,6 @@
     <mergeCell ref="C282:F282"/>
     <mergeCell ref="C283:F283"/>
     <mergeCell ref="C284:F284"/>
-    <mergeCell ref="C267:F267"/>
-    <mergeCell ref="C268:F268"/>
-    <mergeCell ref="C269:F269"/>
-    <mergeCell ref="C270:F270"/>
-    <mergeCell ref="C271:F271"/>
-    <mergeCell ref="C272:F272"/>
-    <mergeCell ref="C273:F273"/>
-    <mergeCell ref="C274:F274"/>
-    <mergeCell ref="C275:F275"/>
-    <mergeCell ref="C256:F256"/>
-    <mergeCell ref="C257:F257"/>
-    <mergeCell ref="C258:F258"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="A261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="C266:F266"/>
-    <mergeCell ref="C247:F247"/>
-    <mergeCell ref="C248:F248"/>
-    <mergeCell ref="C249:F249"/>
-    <mergeCell ref="C250:F250"/>
-    <mergeCell ref="C251:F251"/>
-    <mergeCell ref="C252:F252"/>
-    <mergeCell ref="C253:F253"/>
-    <mergeCell ref="C254:F254"/>
-    <mergeCell ref="C255:F255"/>
-    <mergeCell ref="C238:F238"/>
-    <mergeCell ref="C239:F239"/>
-    <mergeCell ref="C240:F240"/>
-    <mergeCell ref="C241:F241"/>
-    <mergeCell ref="C242:F242"/>
-    <mergeCell ref="C243:F243"/>
-    <mergeCell ref="C244:F244"/>
-    <mergeCell ref="C245:F245"/>
-    <mergeCell ref="C246:F246"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="C234:F234"/>
-    <mergeCell ref="C235:F235"/>
-    <mergeCell ref="C236:F236"/>
-    <mergeCell ref="C237:F237"/>
-    <mergeCell ref="C220:F220"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="C222:F222"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="C225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C213:F213"/>
-    <mergeCell ref="C214:F214"/>
-    <mergeCell ref="C215:F215"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C217:F217"/>
-    <mergeCell ref="C218:F218"/>
-    <mergeCell ref="C219:F219"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="C206:F206"/>
-    <mergeCell ref="C207:F207"/>
-    <mergeCell ref="C208:F208"/>
-    <mergeCell ref="C209:F209"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="F172"/>
-    <mergeCell ref="F175"/>
-    <mergeCell ref="F178"/>
-    <mergeCell ref="F181"/>
-    <mergeCell ref="F184"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="F189"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="F156"/>
-    <mergeCell ref="F159"/>
-    <mergeCell ref="F162"/>
-    <mergeCell ref="F165"/>
-    <mergeCell ref="F168"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="F144"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="F149"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.1" footer="0.1"/>

--- a/KJLTVX/Corrigidos/LTVL/POS_KJLTVL111120R01.xlsx
+++ b/KJLTVX/Corrigidos/LTVL/POS_KJLTVL111120R01.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1881024D-86C5-4A99-A2C1-BD7F4E488AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0057BD3-40A6-4F60-84CA-866A708D81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="1" r:id="rId1"/>
@@ -2012,12 +2012,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2030,73 +2051,52 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2514,18 +2514,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="19" customWidth="1"/>
     <col min="3" max="3" width="3" style="19" customWidth="1"/>
-    <col min="4" max="5" width="53.109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="19"/>
+    <col min="4" max="5" width="53.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2533,7 +2533,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2541,7 +2541,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -2549,7 +2549,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -2557,7 +2557,7 @@
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -2565,7 +2565,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -2573,7 +2573,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -2581,7 +2581,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2589,7 +2589,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2597,7 +2597,7 @@
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -2605,12 +2605,12 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2625,7 +2625,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>1</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>7</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>9</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="2:14" ht="28.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" ht="27" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="20"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -2792,7 +2792,7 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="20"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -2807,7 +2807,7 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -2822,7 +2822,7 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -2837,7 +2837,7 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -2852,7 +2852,7 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="20"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -2867,7 +2867,7 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2882,7 +2882,7 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -2897,7 +2897,7 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -2912,7 +2912,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -2927,7 +2927,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -2942,7 +2942,7 @@
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -2957,7 +2957,7 @@
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -2972,7 +2972,7 @@
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -2987,7 +2987,7 @@
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -3002,7 +3002,7 @@
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -3017,7 +3017,7 @@
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -3054,16 +3054,16 @@
       <selection activeCell="F14" sqref="F14 F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="18" customWidth="1"/>
-    <col min="3" max="6" width="6.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="18"/>
+    <col min="1" max="1" width="6.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="18" customWidth="1"/>
+    <col min="3" max="6" width="6.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="32">
         <v>3</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
         <v>23</v>
@@ -3111,7 +3111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
         <v>25</v>
@@ -3129,7 +3129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="36" t="s">
         <v>26</v>
@@ -3147,7 +3147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
         <v>28</v>
@@ -3165,7 +3165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="36" t="s">
         <v>29</v>
@@ -3183,7 +3183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <v>1</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="36" t="s">
         <v>30</v>
@@ -3211,7 +3211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
         <v>31</v>
@@ -3229,7 +3229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
         <v>32</v>
@@ -3247,7 +3247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <v>2</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="39" t="s">
         <v>34</v>
@@ -3275,7 +3275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="28" t="s">
         <v>35</v>
@@ -3293,7 +3293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
         <v>36</v>
@@ -3311,7 +3311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="28" t="s">
         <v>37</v>
@@ -3329,7 +3329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="36" t="s">
         <v>39</v>
@@ -3347,7 +3347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="28" t="s">
         <v>41</v>
@@ -3365,7 +3365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <v>0</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="28" t="s">
         <v>43</v>
@@ -3393,7 +3393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -3401,7 +3401,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="33"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -3409,11 +3409,11 @@
       <c r="E22" s="34"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="41">
         <v>4</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="45" t="s">
         <v>46</v>
@@ -3462,36 +3462,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
       <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="1.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="18" customWidth="1"/>
+    <col min="1" max="5" width="1.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="18" customWidth="1"/>
     <col min="7" max="7" width="102" style="18" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="18"/>
+    <col min="8" max="9" width="9.140625" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="74" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -3501,75 +3501,75 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="17"/>
       <c r="H2" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="15"/>
       <c r="H3" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="95" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="96" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="69" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="14" t="s">
         <v>59</v>
       </c>
@@ -3577,15 +3577,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="16" t="s">
         <v>61</v>
       </c>
@@ -3593,15 +3593,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="14" t="s">
         <v>63</v>
       </c>
@@ -3609,15 +3609,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="16" t="s">
         <v>65</v>
       </c>
@@ -3625,15 +3625,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="14" t="s">
         <v>67</v>
       </c>
@@ -3641,15 +3641,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="16" t="s">
         <v>69</v>
       </c>
@@ -3657,15 +3657,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="14" t="s">
         <v>71</v>
       </c>
@@ -3673,47 +3673,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="96" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="69" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="95" t="s">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="68" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="16" t="s">
         <v>76</v>
       </c>
@@ -3721,15 +3721,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="49"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="12" t="s">
         <v>78</v>
       </c>
@@ -3737,15 +3737,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="49"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="11" t="s">
         <v>78</v>
       </c>
@@ -3753,15 +3753,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="12" t="s">
         <v>78</v>
       </c>
@@ -3769,15 +3769,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="11" t="s">
         <v>78</v>
       </c>
@@ -3785,15 +3785,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="12" t="s">
         <v>78</v>
       </c>
@@ -3801,15 +3801,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
       <c r="G21" s="16" t="s">
         <v>85</v>
       </c>
@@ -3817,15 +3817,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="14" t="s">
         <v>87</v>
       </c>
@@ -3833,15 +3833,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="16" t="s">
         <v>87</v>
       </c>
@@ -3849,15 +3849,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="14" t="s">
         <v>87</v>
       </c>
@@ -3865,15 +3865,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
       <c r="G25" s="16" t="s">
         <v>87</v>
       </c>
@@ -3881,15 +3881,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="49"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="14" t="s">
         <v>87</v>
       </c>
@@ -3897,15 +3897,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="49"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="16" t="s">
         <v>87</v>
       </c>
@@ -3913,15 +3913,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="14" t="s">
         <v>87</v>
       </c>
@@ -3929,15 +3929,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="16" t="s">
         <v>87</v>
       </c>
@@ -3945,15 +3945,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="49"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="14" t="s">
         <v>87</v>
       </c>
@@ -3961,15 +3961,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="49"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="11" t="s">
         <v>78</v>
       </c>
@@ -3977,15 +3977,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="12" t="s">
         <v>78</v>
       </c>
@@ -3993,15 +3993,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="49"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
       <c r="G33" s="11" t="s">
         <v>78</v>
       </c>
@@ -4009,15 +4009,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="12" t="s">
         <v>78</v>
       </c>
@@ -4025,15 +4025,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="49"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
       <c r="G35" s="11" t="s">
         <v>78</v>
       </c>
@@ -4041,15 +4041,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="49"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
       <c r="G36" s="12" t="s">
         <v>78</v>
       </c>
@@ -4057,15 +4057,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="49"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="11" t="s">
         <v>78</v>
       </c>
@@ -4073,15 +4073,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="49"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="12" t="s">
         <v>78</v>
       </c>
@@ -4089,15 +4089,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="49"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="11" t="s">
         <v>78</v>
       </c>
@@ -4105,15 +4105,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="55"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
       <c r="G40" s="10" t="s">
         <v>78</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="49"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
@@ -4131,29 +4131,29 @@
       <c r="G41" s="66"/>
       <c r="H41" s="67"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="17"/>
       <c r="H42" s="56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="55"/>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="8" t="s">
         <v>109</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="49"/>
       <c r="B44" s="66"/>
       <c r="C44" s="66"/>
@@ -4171,43 +4171,43 @@
       <c r="G44" s="66"/>
       <c r="H44" s="67"/>
     </row>
-    <row r="45" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="89" t="s">
+    <row r="45" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
       <c r="G45" s="17"/>
       <c r="H45" s="58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
       <c r="G46" s="13"/>
       <c r="H46" s="59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="49"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="88" t="s">
+      <c r="C47" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="5" t="s">
         <v>114</v>
       </c>
@@ -4215,15 +4215,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="49"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
       <c r="G48" s="6" t="s">
         <v>116</v>
       </c>
@@ -4231,15 +4231,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="49"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="88" t="s">
+      <c r="C49" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
       <c r="G49" s="5" t="s">
         <v>117</v>
       </c>
@@ -4247,15 +4247,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="49"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="87" t="s">
+      <c r="C50" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
       <c r="G50" s="6" t="s">
         <v>118</v>
       </c>
@@ -4263,15 +4263,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="49"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
       <c r="G51" s="5" t="s">
         <v>119</v>
       </c>
@@ -4279,15 +4279,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="49"/>
       <c r="B52" s="13"/>
-      <c r="C52" s="87" t="s">
+      <c r="C52" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
       <c r="G52" s="6" t="s">
         <v>120</v>
       </c>
@@ -4295,15 +4295,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="49"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
       <c r="G53" s="5" t="s">
         <v>121</v>
       </c>
@@ -4311,15 +4311,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="49"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
       <c r="G54" s="6" t="s">
         <v>122</v>
       </c>
@@ -4327,15 +4327,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="49"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
       <c r="G55" s="5" t="s">
         <v>123</v>
       </c>
@@ -4343,15 +4343,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="49"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
       <c r="G56" s="6" t="s">
         <v>124</v>
       </c>
@@ -4359,15 +4359,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="49"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
       <c r="G57" s="5" t="s">
         <v>125</v>
       </c>
@@ -4375,15 +4375,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="49"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="87" t="s">
+      <c r="C58" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
       <c r="G58" s="6" t="s">
         <v>126</v>
       </c>
@@ -4391,15 +4391,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="49"/>
       <c r="B59" s="15"/>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
       <c r="G59" s="5" t="s">
         <v>127</v>
       </c>
@@ -4407,15 +4407,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="49"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
       <c r="G60" s="6" t="s">
         <v>128</v>
       </c>
@@ -4423,15 +4423,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="49"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
       <c r="G61" s="5" t="s">
         <v>129</v>
       </c>
@@ -4439,15 +4439,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="49"/>
       <c r="B62" s="13"/>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
       <c r="G62" s="6" t="s">
         <v>130</v>
       </c>
@@ -4455,15 +4455,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="55"/>
       <c r="B63" s="7"/>
       <c r="C63" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
       <c r="G63" s="4" t="s">
         <v>131</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="49"/>
       <c r="B64" s="66"/>
       <c r="C64" s="66"/>
@@ -4481,43 +4481,43 @@
       <c r="G64" s="66"/>
       <c r="H64" s="67"/>
     </row>
-    <row r="65" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="85" t="s">
+    <row r="65" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
       <c r="G65" s="17"/>
       <c r="H65" s="50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
       <c r="G66" s="13"/>
       <c r="H66" s="52" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="49"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
       <c r="G67" s="11" t="s">
         <v>109</v>
       </c>
@@ -4525,15 +4525,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
       <c r="G68" s="12" t="s">
         <v>135</v>
       </c>
@@ -4541,15 +4541,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
       <c r="B69" s="15"/>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
       <c r="G69" s="11" t="s">
         <v>136</v>
       </c>
@@ -4557,43 +4557,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
       <c r="G70" s="13"/>
       <c r="H70" s="52" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
-      <c r="D71" s="70" t="s">
+      <c r="D71" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="78"/>
       <c r="G71" s="15"/>
       <c r="H71" s="51" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
-      <c r="E72" s="72" t="s">
+      <c r="E72" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="F72" s="73"/>
+      <c r="F72" s="80"/>
       <c r="G72" s="14" t="s">
         <v>142</v>
       </c>
@@ -4601,15 +4601,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="70" t="s">
+      <c r="E73" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="F73" s="71"/>
+      <c r="F73" s="78"/>
       <c r="G73" s="16" t="s">
         <v>144</v>
       </c>
@@ -4617,15 +4617,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="72" t="s">
+      <c r="E74" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="73"/>
+      <c r="F74" s="80"/>
       <c r="G74" s="14" t="s">
         <v>146</v>
       </c>
@@ -4633,15 +4633,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="70" t="s">
+      <c r="E75" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="F75" s="71"/>
+      <c r="F75" s="78"/>
       <c r="G75" s="16" t="s">
         <v>148</v>
       </c>
@@ -4649,15 +4649,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="72" t="s">
+      <c r="E76" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="73"/>
+      <c r="F76" s="80"/>
       <c r="G76" s="14" t="s">
         <v>142</v>
       </c>
@@ -4665,63 +4665,63 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
-      <c r="E77" s="70" t="s">
+      <c r="E77" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="71"/>
-      <c r="G77" s="96" t="s">
+      <c r="F77" s="78"/>
+      <c r="G77" s="69" t="s">
         <v>144</v>
       </c>
       <c r="H77" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="72" t="s">
+      <c r="E78" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="73"/>
-      <c r="G78" s="95" t="s">
+      <c r="F78" s="80"/>
+      <c r="G78" s="68" t="s">
         <v>146</v>
       </c>
       <c r="H78" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="70" t="s">
+      <c r="E79" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="F79" s="71"/>
-      <c r="G79" s="96" t="s">
+      <c r="F79" s="78"/>
+      <c r="G79" s="69" t="s">
         <v>148</v>
       </c>
       <c r="H79" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="72" t="s">
+      <c r="E80" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="F80" s="73"/>
+      <c r="F80" s="80"/>
       <c r="G80" s="14" t="s">
         <v>154</v>
       </c>
@@ -4729,15 +4729,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="70" t="s">
+      <c r="E81" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="78"/>
       <c r="G81" s="16" t="s">
         <v>156</v>
       </c>
@@ -4745,15 +4745,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="72" t="s">
+      <c r="E82" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="F82" s="73"/>
+      <c r="F82" s="80"/>
       <c r="G82" s="14" t="s">
         <v>154</v>
       </c>
@@ -4761,15 +4761,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="70" t="s">
+      <c r="E83" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="71"/>
+      <c r="F83" s="78"/>
       <c r="G83" s="16" t="s">
         <v>154</v>
       </c>
@@ -4777,15 +4777,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="72" t="s">
+      <c r="E84" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="73"/>
+      <c r="F84" s="80"/>
       <c r="G84" s="14" t="s">
         <v>154</v>
       </c>
@@ -4793,15 +4793,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
-      <c r="E85" s="70" t="s">
+      <c r="E85" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="F85" s="71"/>
+      <c r="F85" s="78"/>
       <c r="G85" s="16" t="s">
         <v>154</v>
       </c>
@@ -4809,15 +4809,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="72" t="s">
+      <c r="E86" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="F86" s="73"/>
+      <c r="F86" s="80"/>
       <c r="G86" s="14" t="s">
         <v>154</v>
       </c>
@@ -4825,15 +4825,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="71"/>
+      <c r="F87" s="78"/>
       <c r="G87" s="16" t="s">
         <v>154</v>
       </c>
@@ -4841,15 +4841,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
-      <c r="E88" s="72" t="s">
+      <c r="E88" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="F88" s="73"/>
+      <c r="F88" s="80"/>
       <c r="G88" s="14" t="s">
         <v>164</v>
       </c>
@@ -4857,15 +4857,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="70" t="s">
+      <c r="E89" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="F89" s="71"/>
+      <c r="F89" s="78"/>
       <c r="G89" s="16" t="s">
         <v>164</v>
       </c>
@@ -4873,29 +4873,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
       <c r="G90" s="13"/>
       <c r="H90" s="52" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="70" t="s">
+      <c r="E91" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="F91" s="71"/>
+      <c r="F91" s="78"/>
       <c r="G91" s="16" t="s">
         <v>169</v>
       </c>
@@ -4903,15 +4903,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="F92" s="73"/>
+      <c r="F92" s="80"/>
       <c r="G92" s="14" t="s">
         <v>171</v>
       </c>
@@ -4919,15 +4919,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
-      <c r="E93" s="70" t="s">
+      <c r="E93" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="F93" s="71"/>
+      <c r="F93" s="78"/>
       <c r="G93" s="16" t="s">
         <v>173</v>
       </c>
@@ -4935,15 +4935,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
-      <c r="E94" s="72" t="s">
+      <c r="E94" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="F94" s="73"/>
+      <c r="F94" s="80"/>
       <c r="G94" s="14" t="s">
         <v>175</v>
       </c>
@@ -4951,47 +4951,47 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
-      <c r="E95" s="70" t="s">
+      <c r="E95" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="F95" s="71"/>
-      <c r="G95" s="96" t="s">
+      <c r="F95" s="78"/>
+      <c r="G95" s="69" t="s">
         <v>169</v>
       </c>
       <c r="H95" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="72" t="s">
+      <c r="E96" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="95" t="s">
+      <c r="F96" s="80"/>
+      <c r="G96" s="68" t="s">
         <v>178</v>
       </c>
       <c r="H96" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
-      <c r="E97" s="70" t="s">
+      <c r="E97" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F97" s="71"/>
+      <c r="F97" s="78"/>
       <c r="G97" s="16" t="s">
         <v>173</v>
       </c>
@@ -4999,45 +4999,45 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
-      <c r="E98" s="72" t="s">
+      <c r="E98" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="F98" s="73"/>
-      <c r="G98" s="95" t="s">
+      <c r="F98" s="80"/>
+      <c r="G98" s="68" t="s">
         <v>175</v>
       </c>
       <c r="H98" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
-      <c r="D99" s="70" t="s">
+      <c r="D99" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
       <c r="G99" s="15"/>
       <c r="H99" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
-      <c r="E100" s="72" t="s">
+      <c r="E100" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="F100" s="73"/>
+      <c r="F100" s="80"/>
       <c r="G100" s="14" t="s">
         <v>184</v>
       </c>
@@ -5045,15 +5045,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
-      <c r="E101" s="70" t="s">
+      <c r="E101" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="F101" s="71"/>
+      <c r="F101" s="78"/>
       <c r="G101" s="16" t="s">
         <v>184</v>
       </c>
@@ -5061,29 +5061,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
-      <c r="D102" s="72" t="s">
+      <c r="D102" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
       <c r="G102" s="13"/>
       <c r="H102" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
-      <c r="E103" s="70" t="s">
+      <c r="E103" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="F103" s="71"/>
+      <c r="F103" s="78"/>
       <c r="G103" s="16" t="s">
         <v>187</v>
       </c>
@@ -5091,45 +5091,45 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
-      <c r="E104" s="72" t="s">
+      <c r="E104" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="F104" s="73"/>
-      <c r="G104" s="95" t="s">
+      <c r="F104" s="80"/>
+      <c r="G104" s="68" t="s">
         <v>187</v>
       </c>
       <c r="H104" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
-      <c r="D105" s="90" t="s">
+      <c r="D105" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
       <c r="G105" s="15"/>
       <c r="H105" s="62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="49"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
-      <c r="E106" s="82" t="s">
+      <c r="E106" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="F106" s="73"/>
+      <c r="F106" s="80"/>
       <c r="G106" s="12" t="s">
         <v>190</v>
       </c>
@@ -5137,15 +5137,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="49"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
-      <c r="E107" s="83" t="s">
+      <c r="E107" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="F107" s="71"/>
+      <c r="F107" s="78"/>
       <c r="G107" s="11" t="s">
         <v>190</v>
       </c>
@@ -5153,15 +5153,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="49"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
-      <c r="E108" s="82" t="s">
+      <c r="E108" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="F108" s="73"/>
+      <c r="F108" s="80"/>
       <c r="G108" s="12" t="s">
         <v>193</v>
       </c>
@@ -5169,15 +5169,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
-      <c r="E109" s="83" t="s">
+      <c r="E109" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="F109" s="71"/>
+      <c r="F109" s="78"/>
       <c r="G109" s="11" t="s">
         <v>194</v>
       </c>
@@ -5185,15 +5185,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
-      <c r="E110" s="82" t="s">
+      <c r="E110" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="F110" s="73"/>
+      <c r="F110" s="80"/>
       <c r="G110" s="12" t="s">
         <v>195</v>
       </c>
@@ -5201,15 +5201,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="49"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
-      <c r="E111" s="83" t="s">
+      <c r="E111" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="F111" s="71"/>
+      <c r="F111" s="78"/>
       <c r="G111" s="11" t="s">
         <v>190</v>
       </c>
@@ -5217,15 +5217,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="49"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
-      <c r="E112" s="82" t="s">
+      <c r="E112" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="F112" s="73"/>
+      <c r="F112" s="80"/>
       <c r="G112" s="12" t="s">
         <v>196</v>
       </c>
@@ -5233,15 +5233,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="49"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
-      <c r="E113" s="83" t="s">
+      <c r="E113" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="F113" s="71"/>
+      <c r="F113" s="78"/>
       <c r="G113" s="11" t="s">
         <v>197</v>
       </c>
@@ -5249,15 +5249,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="49"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
-      <c r="E114" s="82" t="s">
+      <c r="E114" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="F114" s="73"/>
+      <c r="F114" s="80"/>
       <c r="G114" s="12" t="s">
         <v>198</v>
       </c>
@@ -5265,15 +5265,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="49"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
-      <c r="E115" s="83" t="s">
+      <c r="E115" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="71"/>
+      <c r="F115" s="78"/>
       <c r="G115" s="11" t="s">
         <v>190</v>
       </c>
@@ -5281,15 +5281,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="49"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
-      <c r="E116" s="82" t="s">
+      <c r="E116" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="F116" s="73"/>
+      <c r="F116" s="80"/>
       <c r="G116" s="12" t="s">
         <v>199</v>
       </c>
@@ -5297,15 +5297,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="49"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
-      <c r="E117" s="83" t="s">
+      <c r="E117" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="F117" s="71"/>
+      <c r="F117" s="78"/>
       <c r="G117" s="11" t="s">
         <v>193</v>
       </c>
@@ -5313,15 +5313,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="49"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
-      <c r="E118" s="82" t="s">
+      <c r="E118" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="F118" s="73"/>
+      <c r="F118" s="80"/>
       <c r="G118" s="12" t="s">
         <v>193</v>
       </c>
@@ -5329,15 +5329,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="49"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
-      <c r="E119" s="83" t="s">
+      <c r="E119" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="F119" s="71"/>
+      <c r="F119" s="78"/>
       <c r="G119" s="11" t="s">
         <v>193</v>
       </c>
@@ -5345,15 +5345,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="49"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
-      <c r="E120" s="82" t="s">
+      <c r="E120" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="F120" s="73"/>
+      <c r="F120" s="80"/>
       <c r="G120" s="12" t="s">
         <v>193</v>
       </c>
@@ -5361,15 +5361,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="49"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
-      <c r="E121" s="83" t="s">
+      <c r="E121" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="F121" s="71"/>
+      <c r="F121" s="78"/>
       <c r="G121" s="11" t="s">
         <v>193</v>
       </c>
@@ -5377,15 +5377,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="49"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
-      <c r="E122" s="82" t="s">
+      <c r="E122" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F122" s="73"/>
+      <c r="F122" s="80"/>
       <c r="G122" s="12" t="s">
         <v>193</v>
       </c>
@@ -5393,15 +5393,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="49"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
-      <c r="E123" s="83" t="s">
+      <c r="E123" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="F123" s="71"/>
+      <c r="F123" s="78"/>
       <c r="G123" s="11" t="s">
         <v>193</v>
       </c>
@@ -5409,15 +5409,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="49"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
-      <c r="E124" s="82" t="s">
+      <c r="E124" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="F124" s="73"/>
+      <c r="F124" s="80"/>
       <c r="G124" s="12" t="s">
         <v>193</v>
       </c>
@@ -5425,15 +5425,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="49"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
-      <c r="E125" s="83" t="s">
+      <c r="E125" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="F125" s="71"/>
+      <c r="F125" s="78"/>
       <c r="G125" s="11" t="s">
         <v>193</v>
       </c>
@@ -5441,43 +5441,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="49"/>
       <c r="B126" s="13"/>
-      <c r="C126" s="72" t="s">
+      <c r="C126" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="73"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="80"/>
       <c r="G126" s="13"/>
       <c r="H126" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49"/>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
-      <c r="D127" s="90" t="s">
+      <c r="D127" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="E127" s="71"/>
-      <c r="F127" s="71"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="78"/>
       <c r="G127" s="15"/>
       <c r="H127" s="62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="49"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
-      <c r="E128" s="82" t="s">
+      <c r="E128" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="F128" s="73"/>
+      <c r="F128" s="80"/>
       <c r="G128" s="12" t="s">
         <v>204</v>
       </c>
@@ -5485,15 +5485,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="49"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
-      <c r="E129" s="83" t="s">
+      <c r="E129" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="F129" s="71"/>
+      <c r="F129" s="78"/>
       <c r="G129" s="11" t="s">
         <v>205</v>
       </c>
@@ -5501,29 +5501,29 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
-      <c r="D130" s="72" t="s">
+      <c r="D130" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="E130" s="73"/>
-      <c r="F130" s="73"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80"/>
       <c r="G130" s="13"/>
       <c r="H130" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="49"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
-      <c r="E131" s="70" t="s">
+      <c r="E131" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="F131" s="71"/>
+      <c r="F131" s="78"/>
       <c r="G131" s="16" t="s">
         <v>207</v>
       </c>
@@ -5531,45 +5531,45 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="72" t="s">
+      <c r="E132" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="F132" s="73"/>
-      <c r="G132" s="95" t="s">
+      <c r="F132" s="80"/>
+      <c r="G132" s="68" t="s">
         <v>207</v>
       </c>
       <c r="H132" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
-      <c r="D133" s="70" t="s">
+      <c r="D133" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="78"/>
       <c r="G133" s="15"/>
       <c r="H133" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
-      <c r="E134" s="72" t="s">
+      <c r="E134" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="F134" s="73"/>
+      <c r="F134" s="80"/>
       <c r="G134" s="14" t="s">
         <v>209</v>
       </c>
@@ -5577,15 +5577,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="49"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
-      <c r="E135" s="70" t="s">
+      <c r="E135" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="F135" s="71"/>
+      <c r="F135" s="78"/>
       <c r="G135" s="16" t="s">
         <v>210</v>
       </c>
@@ -5593,29 +5593,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="49"/>
       <c r="B136" s="13"/>
-      <c r="C136" s="72" t="s">
+      <c r="C136" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="D136" s="73"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="73"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="80"/>
+      <c r="F136" s="80"/>
       <c r="G136" s="13"/>
       <c r="H136" s="52" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="49"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
-      <c r="D137" s="88" t="s">
+      <c r="D137" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="78"/>
       <c r="G137" s="5" t="s">
         <v>213</v>
       </c>
@@ -5623,15 +5623,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
-      <c r="D138" s="72" t="s">
+      <c r="D138" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="E138" s="73"/>
-      <c r="F138" s="73"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80"/>
       <c r="G138" s="14" t="s">
         <v>215</v>
       </c>
@@ -5639,15 +5639,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
-      <c r="D139" s="70" t="s">
+      <c r="D139" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
+      <c r="E139" s="78"/>
+      <c r="F139" s="78"/>
       <c r="G139" s="16" t="s">
         <v>217</v>
       </c>
@@ -5655,15 +5655,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
-      <c r="D140" s="72" t="s">
+      <c r="D140" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="E140" s="73"/>
-      <c r="F140" s="73"/>
+      <c r="E140" s="80"/>
+      <c r="F140" s="80"/>
       <c r="G140" s="14" t="s">
         <v>219</v>
       </c>
@@ -5671,15 +5671,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
-      <c r="D141" s="70" t="s">
+      <c r="D141" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
       <c r="G141" s="16" t="s">
         <v>221</v>
       </c>
@@ -5687,41 +5687,41 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
-      <c r="D142" s="72" t="s">
+      <c r="D142" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="E142" s="73"/>
-      <c r="F142" s="73"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
       <c r="G142" s="13"/>
       <c r="H142" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="49"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
-      <c r="E143" s="70" t="s">
+      <c r="E143" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="F143" s="71"/>
+      <c r="F143" s="78"/>
       <c r="G143" s="15"/>
       <c r="H143" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="49"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="72" t="s">
+      <c r="F144" s="79" t="s">
         <v>224</v>
       </c>
       <c r="G144" s="13"/>
@@ -5729,7 +5729,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="49"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -5743,7 +5743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -5757,41 +5757,41 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="49"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
-      <c r="D147" s="70" t="s">
+      <c r="D147" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="E147" s="71"/>
-      <c r="F147" s="71"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
       <c r="G147" s="15"/>
       <c r="H147" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="49"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
-      <c r="E148" s="72" t="s">
+      <c r="E148" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="F148" s="73"/>
+      <c r="F148" s="80"/>
       <c r="G148" s="13"/>
       <c r="H148" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="49"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
-      <c r="F149" s="70" t="s">
+      <c r="F149" s="77" t="s">
         <v>228</v>
       </c>
       <c r="G149" s="15"/>
@@ -5799,7 +5799,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -5813,7 +5813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -5827,15 +5827,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
-      <c r="D152" s="72" t="s">
+      <c r="D152" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="E152" s="73"/>
-      <c r="F152" s="73"/>
+      <c r="E152" s="80"/>
+      <c r="F152" s="80"/>
       <c r="G152" s="14" t="s">
         <v>232</v>
       </c>
@@ -5843,55 +5843,55 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="70" t="s">
+      <c r="C153" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="D153" s="71"/>
-      <c r="E153" s="71"/>
-      <c r="F153" s="71"/>
+      <c r="D153" s="78"/>
+      <c r="E153" s="78"/>
+      <c r="F153" s="78"/>
       <c r="G153" s="15"/>
       <c r="H153" s="51" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
-      <c r="D154" s="72" t="s">
+      <c r="D154" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="E154" s="73"/>
-      <c r="F154" s="73"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="80"/>
       <c r="G154" s="13"/>
       <c r="H154" s="52" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
-      <c r="E155" s="70" t="s">
+      <c r="E155" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="F155" s="71"/>
+      <c r="F155" s="78"/>
       <c r="G155" s="15"/>
       <c r="H155" s="51" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="49"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
-      <c r="F156" s="72" t="s">
+      <c r="F156" s="79" t="s">
         <v>228</v>
       </c>
       <c r="G156" s="13"/>
@@ -5899,7 +5899,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="157" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -5913,7 +5913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -5927,13 +5927,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="49"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="70" t="s">
+      <c r="F159" s="77" t="s">
         <v>241</v>
       </c>
       <c r="G159" s="15"/>
@@ -5941,7 +5941,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="49"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -5955,7 +5955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="49"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -5969,13 +5969,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="49"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="72" t="s">
+      <c r="F162" s="79" t="s">
         <v>244</v>
       </c>
       <c r="G162" s="13"/>
@@ -5983,7 +5983,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="49"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -5997,7 +5997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="49"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -6011,13 +6011,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="49"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="70" t="s">
+      <c r="F165" s="77" t="s">
         <v>246</v>
       </c>
       <c r="G165" s="15"/>
@@ -6025,7 +6025,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="166" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="49"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -6039,7 +6039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -6053,13 +6053,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="49"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="72" t="s">
+      <c r="F168" s="79" t="s">
         <v>248</v>
       </c>
       <c r="G168" s="13"/>
@@ -6067,7 +6067,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="49"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -6081,7 +6081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="49"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -6095,27 +6095,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="49"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
-      <c r="E171" s="70" t="s">
+      <c r="E171" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="F171" s="71"/>
+      <c r="F171" s="78"/>
       <c r="G171" s="15"/>
       <c r="H171" s="51" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="49"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
-      <c r="F172" s="72" t="s">
+      <c r="F172" s="79" t="s">
         <v>228</v>
       </c>
       <c r="G172" s="13"/>
@@ -6123,41 +6123,41 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="49"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
-      <c r="G173" s="96" t="s">
+      <c r="G173" s="69" t="s">
         <v>239</v>
       </c>
       <c r="H173" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="49"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
-      <c r="G174" s="95" t="s">
+      <c r="G174" s="68" t="s">
         <v>240</v>
       </c>
       <c r="H174" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="49"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="70" t="s">
+      <c r="F175" s="77" t="s">
         <v>241</v>
       </c>
       <c r="G175" s="15"/>
@@ -6165,41 +6165,41 @@
         <v>182</v>
       </c>
     </row>
-    <row r="176" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="49"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
-      <c r="G176" s="95" t="s">
+      <c r="G176" s="68" t="s">
         <v>242</v>
       </c>
       <c r="H176" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="49"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
-      <c r="G177" s="96" t="s">
+      <c r="G177" s="69" t="s">
         <v>243</v>
       </c>
       <c r="H177" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="49"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
-      <c r="F178" s="72" t="s">
+      <c r="F178" s="79" t="s">
         <v>244</v>
       </c>
       <c r="G178" s="13"/>
@@ -6207,41 +6207,41 @@
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="49"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
-      <c r="G179" s="96" t="s">
+      <c r="G179" s="69" t="s">
         <v>239</v>
       </c>
       <c r="H179" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="49"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
-      <c r="G180" s="95" t="s">
+      <c r="G180" s="68" t="s">
         <v>245</v>
       </c>
       <c r="H180" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="49"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="70" t="s">
+      <c r="F181" s="77" t="s">
         <v>246</v>
       </c>
       <c r="G181" s="15"/>
@@ -6249,41 +6249,41 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
-      <c r="G182" s="95" t="s">
+      <c r="G182" s="68" t="s">
         <v>239</v>
       </c>
       <c r="H182" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="49"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
-      <c r="G183" s="96" t="s">
+      <c r="G183" s="69" t="s">
         <v>247</v>
       </c>
       <c r="H183" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="49"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
-      <c r="F184" s="72" t="s">
+      <c r="F184" s="79" t="s">
         <v>248</v>
       </c>
       <c r="G184" s="13"/>
@@ -6291,69 +6291,69 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="49"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
-      <c r="G185" s="96" t="s">
+      <c r="G185" s="69" t="s">
         <v>239</v>
       </c>
       <c r="H185" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="49"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
-      <c r="G186" s="95" t="s">
+      <c r="G186" s="68" t="s">
         <v>249</v>
       </c>
       <c r="H186" s="52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="49"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
-      <c r="D187" s="70" t="s">
+      <c r="D187" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="E187" s="71"/>
-      <c r="F187" s="71"/>
+      <c r="E187" s="78"/>
+      <c r="F187" s="78"/>
       <c r="G187" s="15"/>
       <c r="H187" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="49"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
-      <c r="E188" s="72" t="s">
+      <c r="E188" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="F188" s="73"/>
+      <c r="F188" s="80"/>
       <c r="G188" s="13"/>
       <c r="H188" s="52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="49"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="70" t="s">
+      <c r="F189" s="77" t="s">
         <v>253</v>
       </c>
       <c r="G189" s="15"/>
@@ -6361,7 +6361,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="49"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -6375,7 +6375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="49"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -6389,15 +6389,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="49"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
-      <c r="D192" s="72" t="s">
+      <c r="D192" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="E192" s="73"/>
-      <c r="F192" s="73"/>
+      <c r="E192" s="80"/>
+      <c r="F192" s="80"/>
       <c r="G192" s="14" t="s">
         <v>257</v>
       </c>
@@ -6405,29 +6405,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="49"/>
       <c r="B193" s="15"/>
-      <c r="C193" s="70" t="s">
+      <c r="C193" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="D193" s="71"/>
-      <c r="E193" s="71"/>
-      <c r="F193" s="71"/>
+      <c r="D193" s="78"/>
+      <c r="E193" s="78"/>
+      <c r="F193" s="78"/>
       <c r="G193" s="15"/>
       <c r="H193" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="49"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
-      <c r="D194" s="72" t="s">
+      <c r="D194" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="E194" s="73"/>
-      <c r="F194" s="73"/>
+      <c r="E194" s="80"/>
+      <c r="F194" s="80"/>
       <c r="G194" s="14" t="s">
         <v>260</v>
       </c>
@@ -6435,15 +6435,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="55"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
-      <c r="D195" s="74" t="s">
+      <c r="D195" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E195" s="75"/>
-      <c r="F195" s="75"/>
+      <c r="E195" s="87"/>
+      <c r="F195" s="87"/>
       <c r="G195" s="3" t="s">
         <v>262</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="49"/>
       <c r="B196" s="66"/>
       <c r="C196" s="66"/>
@@ -6461,43 +6461,43 @@
       <c r="G196" s="66"/>
       <c r="H196" s="67"/>
     </row>
-    <row r="197" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="89" t="s">
+    <row r="197" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="B197" s="77"/>
-      <c r="C197" s="77"/>
-      <c r="D197" s="77"/>
-      <c r="E197" s="77"/>
-      <c r="F197" s="77"/>
+      <c r="B197" s="76"/>
+      <c r="C197" s="76"/>
+      <c r="D197" s="76"/>
+      <c r="E197" s="76"/>
+      <c r="F197" s="76"/>
       <c r="G197" s="17"/>
       <c r="H197" s="58" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="198" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="49"/>
-      <c r="B198" s="87" t="s">
+      <c r="B198" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="C198" s="73"/>
-      <c r="D198" s="73"/>
-      <c r="E198" s="73"/>
-      <c r="F198" s="73"/>
+      <c r="C198" s="80"/>
+      <c r="D198" s="80"/>
+      <c r="E198" s="80"/>
+      <c r="F198" s="80"/>
       <c r="G198" s="13"/>
       <c r="H198" s="59" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="199" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="49"/>
       <c r="B199" s="15"/>
-      <c r="C199" s="83" t="s">
+      <c r="C199" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="D199" s="71"/>
-      <c r="E199" s="71"/>
-      <c r="F199" s="71"/>
+      <c r="D199" s="78"/>
+      <c r="E199" s="78"/>
+      <c r="F199" s="78"/>
       <c r="G199" s="11" t="s">
         <v>267</v>
       </c>
@@ -6505,15 +6505,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="49"/>
       <c r="B200" s="13"/>
-      <c r="C200" s="82" t="s">
+      <c r="C200" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="D200" s="73"/>
-      <c r="E200" s="73"/>
-      <c r="F200" s="73"/>
+      <c r="D200" s="80"/>
+      <c r="E200" s="80"/>
+      <c r="F200" s="80"/>
       <c r="G200" s="12" t="s">
         <v>269</v>
       </c>
@@ -6521,15 +6521,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="49"/>
       <c r="B201" s="15"/>
-      <c r="C201" s="83" t="s">
+      <c r="C201" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="D201" s="71"/>
-      <c r="E201" s="71"/>
-      <c r="F201" s="71"/>
+      <c r="D201" s="78"/>
+      <c r="E201" s="78"/>
+      <c r="F201" s="78"/>
       <c r="G201" s="11" t="s">
         <v>271</v>
       </c>
@@ -6537,15 +6537,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="49"/>
       <c r="B202" s="13"/>
-      <c r="C202" s="82" t="s">
+      <c r="C202" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="D202" s="73"/>
-      <c r="E202" s="73"/>
-      <c r="F202" s="73"/>
+      <c r="D202" s="80"/>
+      <c r="E202" s="80"/>
+      <c r="F202" s="80"/>
       <c r="G202" s="12" t="s">
         <v>273</v>
       </c>
@@ -6553,15 +6553,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="49"/>
       <c r="B203" s="15"/>
-      <c r="C203" s="83" t="s">
+      <c r="C203" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="D203" s="71"/>
-      <c r="E203" s="71"/>
-      <c r="F203" s="71"/>
+      <c r="D203" s="78"/>
+      <c r="E203" s="78"/>
+      <c r="F203" s="78"/>
       <c r="G203" s="11" t="s">
         <v>275</v>
       </c>
@@ -6569,15 +6569,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="49"/>
       <c r="B204" s="13"/>
-      <c r="C204" s="87" t="s">
+      <c r="C204" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="D204" s="73"/>
-      <c r="E204" s="73"/>
-      <c r="F204" s="73"/>
+      <c r="D204" s="80"/>
+      <c r="E204" s="80"/>
+      <c r="F204" s="80"/>
       <c r="G204" s="6" t="s">
         <v>277</v>
       </c>
@@ -6585,15 +6585,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="49"/>
       <c r="B205" s="15"/>
-      <c r="C205" s="88" t="s">
+      <c r="C205" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="D205" s="71"/>
-      <c r="E205" s="71"/>
-      <c r="F205" s="71"/>
+      <c r="D205" s="78"/>
+      <c r="E205" s="78"/>
+      <c r="F205" s="78"/>
       <c r="G205" s="5" t="s">
         <v>277</v>
       </c>
@@ -6601,15 +6601,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="49"/>
       <c r="B206" s="13"/>
-      <c r="C206" s="87" t="s">
+      <c r="C206" s="89" t="s">
         <v>279</v>
       </c>
-      <c r="D206" s="73"/>
-      <c r="E206" s="73"/>
-      <c r="F206" s="73"/>
+      <c r="D206" s="80"/>
+      <c r="E206" s="80"/>
+      <c r="F206" s="80"/>
       <c r="G206" s="6" t="s">
         <v>277</v>
       </c>
@@ -6617,15 +6617,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="49"/>
       <c r="B207" s="15"/>
-      <c r="C207" s="88" t="s">
+      <c r="C207" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D207" s="71"/>
-      <c r="E207" s="71"/>
-      <c r="F207" s="71"/>
+      <c r="D207" s="78"/>
+      <c r="E207" s="78"/>
+      <c r="F207" s="78"/>
       <c r="G207" s="5" t="s">
         <v>277</v>
       </c>
@@ -6633,15 +6633,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="49"/>
       <c r="B208" s="13"/>
-      <c r="C208" s="87" t="s">
+      <c r="C208" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="D208" s="73"/>
-      <c r="E208" s="73"/>
-      <c r="F208" s="73"/>
+      <c r="D208" s="80"/>
+      <c r="E208" s="80"/>
+      <c r="F208" s="80"/>
       <c r="G208" s="6" t="s">
         <v>277</v>
       </c>
@@ -6649,15 +6649,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="49"/>
       <c r="B209" s="15"/>
-      <c r="C209" s="88" t="s">
+      <c r="C209" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="D209" s="71"/>
-      <c r="E209" s="71"/>
-      <c r="F209" s="71"/>
+      <c r="D209" s="78"/>
+      <c r="E209" s="78"/>
+      <c r="F209" s="78"/>
       <c r="G209" s="5" t="s">
         <v>277</v>
       </c>
@@ -6665,15 +6665,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="49"/>
       <c r="B210" s="13"/>
-      <c r="C210" s="87" t="s">
+      <c r="C210" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="D210" s="73"/>
-      <c r="E210" s="73"/>
-      <c r="F210" s="73"/>
+      <c r="D210" s="80"/>
+      <c r="E210" s="80"/>
+      <c r="F210" s="80"/>
       <c r="G210" s="6" t="s">
         <v>277</v>
       </c>
@@ -6681,15 +6681,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="49"/>
       <c r="B211" s="15"/>
-      <c r="C211" s="88" t="s">
+      <c r="C211" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="D211" s="71"/>
-      <c r="E211" s="71"/>
-      <c r="F211" s="71"/>
+      <c r="D211" s="78"/>
+      <c r="E211" s="78"/>
+      <c r="F211" s="78"/>
       <c r="G211" s="5" t="s">
         <v>277</v>
       </c>
@@ -6697,15 +6697,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="49"/>
       <c r="B212" s="13"/>
-      <c r="C212" s="87" t="s">
+      <c r="C212" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="D212" s="73"/>
-      <c r="E212" s="73"/>
-      <c r="F212" s="73"/>
+      <c r="D212" s="80"/>
+      <c r="E212" s="80"/>
+      <c r="F212" s="80"/>
       <c r="G212" s="6" t="s">
         <v>277</v>
       </c>
@@ -6713,15 +6713,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="49"/>
       <c r="B213" s="15"/>
-      <c r="C213" s="88" t="s">
+      <c r="C213" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="D213" s="71"/>
-      <c r="E213" s="71"/>
-      <c r="F213" s="71"/>
+      <c r="D213" s="78"/>
+      <c r="E213" s="78"/>
+      <c r="F213" s="78"/>
       <c r="G213" s="5" t="s">
         <v>277</v>
       </c>
@@ -6729,15 +6729,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="49"/>
       <c r="B214" s="13"/>
-      <c r="C214" s="82" t="s">
+      <c r="C214" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="D214" s="73"/>
-      <c r="E214" s="73"/>
-      <c r="F214" s="73"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="80"/>
+      <c r="F214" s="80"/>
       <c r="G214" s="12" t="s">
         <v>288</v>
       </c>
@@ -6745,15 +6745,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="49"/>
       <c r="B215" s="15"/>
-      <c r="C215" s="88" t="s">
+      <c r="C215" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="D215" s="71"/>
-      <c r="E215" s="71"/>
-      <c r="F215" s="71"/>
+      <c r="D215" s="78"/>
+      <c r="E215" s="78"/>
+      <c r="F215" s="78"/>
       <c r="G215" s="5" t="s">
         <v>290</v>
       </c>
@@ -6761,15 +6761,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="49"/>
       <c r="B216" s="13"/>
-      <c r="C216" s="87" t="s">
+      <c r="C216" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="D216" s="73"/>
-      <c r="E216" s="73"/>
-      <c r="F216" s="73"/>
+      <c r="D216" s="80"/>
+      <c r="E216" s="80"/>
+      <c r="F216" s="80"/>
       <c r="G216" s="6" t="s">
         <v>292</v>
       </c>
@@ -6777,15 +6777,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="49"/>
       <c r="B217" s="15"/>
-      <c r="C217" s="88" t="s">
+      <c r="C217" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="D217" s="71"/>
-      <c r="E217" s="71"/>
-      <c r="F217" s="71"/>
+      <c r="D217" s="78"/>
+      <c r="E217" s="78"/>
+      <c r="F217" s="78"/>
       <c r="G217" s="5" t="s">
         <v>277</v>
       </c>
@@ -6793,15 +6793,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="218" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="49"/>
       <c r="B218" s="13"/>
-      <c r="C218" s="82" t="s">
+      <c r="C218" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D218" s="73"/>
-      <c r="E218" s="73"/>
-      <c r="F218" s="73"/>
+      <c r="D218" s="80"/>
+      <c r="E218" s="80"/>
+      <c r="F218" s="80"/>
       <c r="G218" s="12" t="s">
         <v>294</v>
       </c>
@@ -6809,15 +6809,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="49"/>
       <c r="B219" s="15"/>
-      <c r="C219" s="83" t="s">
+      <c r="C219" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="D219" s="71"/>
-      <c r="E219" s="71"/>
-      <c r="F219" s="71"/>
+      <c r="D219" s="78"/>
+      <c r="E219" s="78"/>
+      <c r="F219" s="78"/>
       <c r="G219" s="11" t="s">
         <v>294</v>
       </c>
@@ -6825,15 +6825,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="49"/>
       <c r="B220" s="13"/>
-      <c r="C220" s="87" t="s">
+      <c r="C220" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="D220" s="73"/>
-      <c r="E220" s="73"/>
-      <c r="F220" s="73"/>
+      <c r="D220" s="80"/>
+      <c r="E220" s="80"/>
+      <c r="F220" s="80"/>
       <c r="G220" s="6" t="s">
         <v>277</v>
       </c>
@@ -6841,15 +6841,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="49"/>
       <c r="B221" s="15"/>
-      <c r="C221" s="88" t="s">
+      <c r="C221" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="D221" s="71"/>
-      <c r="E221" s="71"/>
-      <c r="F221" s="71"/>
+      <c r="D221" s="78"/>
+      <c r="E221" s="78"/>
+      <c r="F221" s="78"/>
       <c r="G221" s="5" t="s">
         <v>297</v>
       </c>
@@ -6857,29 +6857,29 @@
         <v>115</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="49"/>
       <c r="B222" s="13"/>
-      <c r="C222" s="87" t="s">
+      <c r="C222" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="D222" s="73"/>
-      <c r="E222" s="73"/>
-      <c r="F222" s="73"/>
+      <c r="D222" s="80"/>
+      <c r="E222" s="80"/>
+      <c r="F222" s="80"/>
       <c r="G222" s="13"/>
       <c r="H222" s="59" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="49"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
-      <c r="D223" s="83" t="s">
+      <c r="D223" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E223" s="71"/>
-      <c r="F223" s="71"/>
+      <c r="E223" s="78"/>
+      <c r="F223" s="78"/>
       <c r="G223" s="11" t="s">
         <v>300</v>
       </c>
@@ -6887,15 +6887,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="49"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
-      <c r="D224" s="87" t="s">
+      <c r="D224" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E224" s="73"/>
-      <c r="F224" s="73"/>
+      <c r="E224" s="80"/>
+      <c r="F224" s="80"/>
       <c r="G224" s="6" t="s">
         <v>301</v>
       </c>
@@ -6903,15 +6903,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="49"/>
       <c r="B225" s="15"/>
-      <c r="C225" s="88" t="s">
+      <c r="C225" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="D225" s="71"/>
-      <c r="E225" s="71"/>
-      <c r="F225" s="71"/>
+      <c r="D225" s="78"/>
+      <c r="E225" s="78"/>
+      <c r="F225" s="78"/>
       <c r="G225" s="5" t="s">
         <v>303</v>
       </c>
@@ -6919,29 +6919,29 @@
         <v>115</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="49"/>
       <c r="B226" s="13"/>
-      <c r="C226" s="87" t="s">
+      <c r="C226" s="89" t="s">
         <v>304</v>
       </c>
-      <c r="D226" s="73"/>
-      <c r="E226" s="73"/>
-      <c r="F226" s="73"/>
+      <c r="D226" s="80"/>
+      <c r="E226" s="80"/>
+      <c r="F226" s="80"/>
       <c r="G226" s="13"/>
       <c r="H226" s="59" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="49"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
-      <c r="D227" s="83" t="s">
+      <c r="D227" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E227" s="71"/>
-      <c r="F227" s="71"/>
+      <c r="E227" s="78"/>
+      <c r="F227" s="78"/>
       <c r="G227" s="11" t="s">
         <v>305</v>
       </c>
@@ -6949,15 +6949,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="49"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
-      <c r="D228" s="87" t="s">
+      <c r="D228" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E228" s="73"/>
-      <c r="F228" s="73"/>
+      <c r="E228" s="80"/>
+      <c r="F228" s="80"/>
       <c r="G228" s="6" t="s">
         <v>301</v>
       </c>
@@ -6965,15 +6965,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="49"/>
       <c r="B229" s="15"/>
-      <c r="C229" s="88" t="s">
+      <c r="C229" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="D229" s="71"/>
-      <c r="E229" s="71"/>
-      <c r="F229" s="71"/>
+      <c r="D229" s="78"/>
+      <c r="E229" s="78"/>
+      <c r="F229" s="78"/>
       <c r="G229" s="5" t="s">
         <v>277</v>
       </c>
@@ -6981,29 +6981,29 @@
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="49"/>
       <c r="B230" s="13"/>
-      <c r="C230" s="87" t="s">
+      <c r="C230" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="D230" s="73"/>
-      <c r="E230" s="73"/>
-      <c r="F230" s="73"/>
+      <c r="D230" s="80"/>
+      <c r="E230" s="80"/>
+      <c r="F230" s="80"/>
       <c r="G230" s="13"/>
       <c r="H230" s="59" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="49"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
-      <c r="D231" s="83" t="s">
+      <c r="D231" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="E231" s="71"/>
-      <c r="F231" s="71"/>
+      <c r="E231" s="78"/>
+      <c r="F231" s="78"/>
       <c r="G231" s="11" t="s">
         <v>308</v>
       </c>
@@ -7011,15 +7011,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="49"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
-      <c r="D232" s="87" t="s">
+      <c r="D232" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E232" s="73"/>
-      <c r="F232" s="73"/>
+      <c r="E232" s="80"/>
+      <c r="F232" s="80"/>
       <c r="G232" s="6" t="s">
         <v>277</v>
       </c>
@@ -7027,15 +7027,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="49"/>
       <c r="B233" s="15"/>
-      <c r="C233" s="88" t="s">
+      <c r="C233" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D233" s="71"/>
-      <c r="E233" s="71"/>
-      <c r="F233" s="71"/>
+      <c r="D233" s="78"/>
+      <c r="E233" s="78"/>
+      <c r="F233" s="78"/>
       <c r="G233" s="5" t="s">
         <v>277</v>
       </c>
@@ -7043,15 +7043,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="49"/>
       <c r="B234" s="13"/>
-      <c r="C234" s="87" t="s">
+      <c r="C234" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="D234" s="73"/>
-      <c r="E234" s="73"/>
-      <c r="F234" s="73"/>
+      <c r="D234" s="80"/>
+      <c r="E234" s="80"/>
+      <c r="F234" s="80"/>
       <c r="G234" s="6" t="s">
         <v>277</v>
       </c>
@@ -7059,15 +7059,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="49"/>
       <c r="B235" s="15"/>
-      <c r="C235" s="88" t="s">
+      <c r="C235" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D235" s="71"/>
-      <c r="E235" s="71"/>
-      <c r="F235" s="71"/>
+      <c r="D235" s="78"/>
+      <c r="E235" s="78"/>
+      <c r="F235" s="78"/>
       <c r="G235" s="5" t="s">
         <v>277</v>
       </c>
@@ -7075,15 +7075,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="49"/>
       <c r="B236" s="13"/>
-      <c r="C236" s="87" t="s">
+      <c r="C236" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D236" s="73"/>
-      <c r="E236" s="73"/>
-      <c r="F236" s="73"/>
+      <c r="D236" s="80"/>
+      <c r="E236" s="80"/>
+      <c r="F236" s="80"/>
       <c r="G236" s="6" t="s">
         <v>277</v>
       </c>
@@ -7091,15 +7091,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="49"/>
       <c r="B237" s="15"/>
-      <c r="C237" s="88" t="s">
+      <c r="C237" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D237" s="71"/>
-      <c r="E237" s="71"/>
-      <c r="F237" s="71"/>
+      <c r="D237" s="78"/>
+      <c r="E237" s="78"/>
+      <c r="F237" s="78"/>
       <c r="G237" s="5" t="s">
         <v>277</v>
       </c>
@@ -7107,15 +7107,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="49"/>
       <c r="B238" s="13"/>
-      <c r="C238" s="87" t="s">
+      <c r="C238" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D238" s="73"/>
-      <c r="E238" s="73"/>
-      <c r="F238" s="73"/>
+      <c r="D238" s="80"/>
+      <c r="E238" s="80"/>
+      <c r="F238" s="80"/>
       <c r="G238" s="6" t="s">
         <v>277</v>
       </c>
@@ -7123,15 +7123,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="49"/>
       <c r="B239" s="15"/>
-      <c r="C239" s="88" t="s">
+      <c r="C239" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D239" s="71"/>
-      <c r="E239" s="71"/>
-      <c r="F239" s="71"/>
+      <c r="D239" s="78"/>
+      <c r="E239" s="78"/>
+      <c r="F239" s="78"/>
       <c r="G239" s="5" t="s">
         <v>277</v>
       </c>
@@ -7139,15 +7139,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="49"/>
       <c r="B240" s="13"/>
-      <c r="C240" s="87" t="s">
+      <c r="C240" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="D240" s="73"/>
-      <c r="E240" s="73"/>
-      <c r="F240" s="73"/>
+      <c r="D240" s="80"/>
+      <c r="E240" s="80"/>
+      <c r="F240" s="80"/>
       <c r="G240" s="6" t="s">
         <v>277</v>
       </c>
@@ -7155,15 +7155,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="49"/>
       <c r="B241" s="15"/>
-      <c r="C241" s="83" t="s">
+      <c r="C241" s="82" t="s">
         <v>311</v>
       </c>
-      <c r="D241" s="71"/>
-      <c r="E241" s="71"/>
-      <c r="F241" s="71"/>
+      <c r="D241" s="78"/>
+      <c r="E241" s="78"/>
+      <c r="F241" s="78"/>
       <c r="G241" s="11" t="s">
         <v>312</v>
       </c>
@@ -7171,15 +7171,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="49"/>
       <c r="B242" s="13"/>
-      <c r="C242" s="82" t="s">
+      <c r="C242" s="81" t="s">
         <v>313</v>
       </c>
-      <c r="D242" s="73"/>
-      <c r="E242" s="73"/>
-      <c r="F242" s="73"/>
+      <c r="D242" s="80"/>
+      <c r="E242" s="80"/>
+      <c r="F242" s="80"/>
       <c r="G242" s="12" t="s">
         <v>314</v>
       </c>
@@ -7187,15 +7187,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="49"/>
       <c r="B243" s="15"/>
-      <c r="C243" s="83" t="s">
+      <c r="C243" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="D243" s="71"/>
-      <c r="E243" s="71"/>
-      <c r="F243" s="71"/>
+      <c r="D243" s="78"/>
+      <c r="E243" s="78"/>
+      <c r="F243" s="78"/>
       <c r="G243" s="11" t="s">
         <v>316</v>
       </c>
@@ -7203,15 +7203,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="49"/>
       <c r="B244" s="13"/>
-      <c r="C244" s="82" t="s">
+      <c r="C244" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="D244" s="73"/>
-      <c r="E244" s="73"/>
-      <c r="F244" s="73"/>
+      <c r="D244" s="80"/>
+      <c r="E244" s="80"/>
+      <c r="F244" s="80"/>
       <c r="G244" s="12" t="s">
         <v>318</v>
       </c>
@@ -7219,15 +7219,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="49"/>
       <c r="B245" s="15"/>
-      <c r="C245" s="83" t="s">
+      <c r="C245" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="D245" s="71"/>
-      <c r="E245" s="71"/>
-      <c r="F245" s="71"/>
+      <c r="D245" s="78"/>
+      <c r="E245" s="78"/>
+      <c r="F245" s="78"/>
       <c r="G245" s="11" t="s">
         <v>312</v>
       </c>
@@ -7235,15 +7235,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="49"/>
       <c r="B246" s="13"/>
-      <c r="C246" s="82" t="s">
+      <c r="C246" s="81" t="s">
         <v>320</v>
       </c>
-      <c r="D246" s="73"/>
-      <c r="E246" s="73"/>
-      <c r="F246" s="73"/>
+      <c r="D246" s="80"/>
+      <c r="E246" s="80"/>
+      <c r="F246" s="80"/>
       <c r="G246" s="12" t="s">
         <v>314</v>
       </c>
@@ -7251,15 +7251,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="49"/>
       <c r="B247" s="15"/>
-      <c r="C247" s="83" t="s">
+      <c r="C247" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="D247" s="71"/>
-      <c r="E247" s="71"/>
-      <c r="F247" s="71"/>
+      <c r="D247" s="78"/>
+      <c r="E247" s="78"/>
+      <c r="F247" s="78"/>
       <c r="G247" s="11" t="s">
         <v>316</v>
       </c>
@@ -7267,15 +7267,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="49"/>
       <c r="B248" s="13"/>
-      <c r="C248" s="82" t="s">
+      <c r="C248" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="D248" s="73"/>
-      <c r="E248" s="73"/>
-      <c r="F248" s="73"/>
+      <c r="D248" s="80"/>
+      <c r="E248" s="80"/>
+      <c r="F248" s="80"/>
       <c r="G248" s="12" t="s">
         <v>318</v>
       </c>
@@ -7283,15 +7283,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="49"/>
       <c r="B249" s="15"/>
-      <c r="C249" s="83" t="s">
+      <c r="C249" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="D249" s="71"/>
-      <c r="E249" s="71"/>
-      <c r="F249" s="71"/>
+      <c r="D249" s="78"/>
+      <c r="E249" s="78"/>
+      <c r="F249" s="78"/>
       <c r="G249" s="11" t="s">
         <v>324</v>
       </c>
@@ -7299,15 +7299,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="49"/>
       <c r="B250" s="13"/>
-      <c r="C250" s="82" t="s">
+      <c r="C250" s="81" t="s">
         <v>325</v>
       </c>
-      <c r="D250" s="73"/>
-      <c r="E250" s="73"/>
-      <c r="F250" s="73"/>
+      <c r="D250" s="80"/>
+      <c r="E250" s="80"/>
+      <c r="F250" s="80"/>
       <c r="G250" s="12" t="s">
         <v>326</v>
       </c>
@@ -7315,15 +7315,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="49"/>
       <c r="B251" s="15"/>
-      <c r="C251" s="83" t="s">
+      <c r="C251" s="82" t="s">
         <v>327</v>
       </c>
-      <c r="D251" s="71"/>
-      <c r="E251" s="71"/>
-      <c r="F251" s="71"/>
+      <c r="D251" s="78"/>
+      <c r="E251" s="78"/>
+      <c r="F251" s="78"/>
       <c r="G251" s="11" t="s">
         <v>328</v>
       </c>
@@ -7331,15 +7331,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="49"/>
       <c r="B252" s="13"/>
-      <c r="C252" s="82" t="s">
+      <c r="C252" s="81" t="s">
         <v>329</v>
       </c>
-      <c r="D252" s="73"/>
-      <c r="E252" s="73"/>
-      <c r="F252" s="73"/>
+      <c r="D252" s="80"/>
+      <c r="E252" s="80"/>
+      <c r="F252" s="80"/>
       <c r="G252" s="12" t="s">
         <v>330</v>
       </c>
@@ -7347,15 +7347,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="49"/>
       <c r="B253" s="15"/>
-      <c r="C253" s="83" t="s">
+      <c r="C253" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="D253" s="71"/>
-      <c r="E253" s="71"/>
-      <c r="F253" s="71"/>
+      <c r="D253" s="78"/>
+      <c r="E253" s="78"/>
+      <c r="F253" s="78"/>
       <c r="G253" s="11" t="s">
         <v>332</v>
       </c>
@@ -7363,15 +7363,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="49"/>
       <c r="B254" s="13"/>
-      <c r="C254" s="82" t="s">
+      <c r="C254" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="D254" s="73"/>
-      <c r="E254" s="73"/>
-      <c r="F254" s="73"/>
+      <c r="D254" s="80"/>
+      <c r="E254" s="80"/>
+      <c r="F254" s="80"/>
       <c r="G254" s="12" t="s">
         <v>334</v>
       </c>
@@ -7379,15 +7379,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="49"/>
       <c r="B255" s="15"/>
-      <c r="C255" s="83" t="s">
+      <c r="C255" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="D255" s="71"/>
-      <c r="E255" s="71"/>
-      <c r="F255" s="71"/>
+      <c r="D255" s="78"/>
+      <c r="E255" s="78"/>
+      <c r="F255" s="78"/>
       <c r="G255" s="11" t="s">
         <v>330</v>
       </c>
@@ -7395,15 +7395,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="49"/>
       <c r="B256" s="13"/>
-      <c r="C256" s="82" t="s">
+      <c r="C256" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="D256" s="73"/>
-      <c r="E256" s="73"/>
-      <c r="F256" s="73"/>
+      <c r="D256" s="80"/>
+      <c r="E256" s="80"/>
+      <c r="F256" s="80"/>
       <c r="G256" s="12" t="s">
         <v>330</v>
       </c>
@@ -7411,15 +7411,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="49"/>
       <c r="B257" s="15"/>
-      <c r="C257" s="83" t="s">
+      <c r="C257" s="82" t="s">
         <v>337</v>
       </c>
-      <c r="D257" s="71"/>
-      <c r="E257" s="71"/>
-      <c r="F257" s="71"/>
+      <c r="D257" s="78"/>
+      <c r="E257" s="78"/>
+      <c r="F257" s="78"/>
       <c r="G257" s="11" t="s">
         <v>330</v>
       </c>
@@ -7427,15 +7427,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="49"/>
       <c r="B258" s="13"/>
-      <c r="C258" s="82" t="s">
+      <c r="C258" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="D258" s="73"/>
-      <c r="E258" s="73"/>
-      <c r="F258" s="73"/>
+      <c r="D258" s="80"/>
+      <c r="E258" s="80"/>
+      <c r="F258" s="80"/>
       <c r="G258" s="12" t="s">
         <v>330</v>
       </c>
@@ -7443,15 +7443,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="55"/>
       <c r="B259" s="7"/>
-      <c r="C259" s="84" t="s">
+      <c r="C259" s="86" t="s">
         <v>339</v>
       </c>
-      <c r="D259" s="75"/>
-      <c r="E259" s="75"/>
-      <c r="F259" s="75"/>
+      <c r="D259" s="87"/>
+      <c r="E259" s="87"/>
+      <c r="F259" s="87"/>
       <c r="G259" s="8" t="s">
         <v>330</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="49"/>
       <c r="B260" s="66"/>
       <c r="C260" s="66"/>
@@ -7469,29 +7469,29 @@
       <c r="G260" s="66"/>
       <c r="H260" s="67"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="85" t="s">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="B261" s="77"/>
-      <c r="C261" s="77"/>
-      <c r="D261" s="77"/>
-      <c r="E261" s="77"/>
-      <c r="F261" s="77"/>
+      <c r="B261" s="76"/>
+      <c r="C261" s="76"/>
+      <c r="D261" s="76"/>
+      <c r="E261" s="76"/>
+      <c r="F261" s="76"/>
       <c r="G261" s="17"/>
       <c r="H261" s="50" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="55"/>
-      <c r="B262" s="86" t="s">
+      <c r="B262" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="C262" s="79"/>
-      <c r="D262" s="79"/>
-      <c r="E262" s="79"/>
-      <c r="F262" s="79"/>
+      <c r="C262" s="84"/>
+      <c r="D262" s="84"/>
+      <c r="E262" s="84"/>
+      <c r="F262" s="84"/>
       <c r="G262" s="2" t="s">
         <v>343</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="49"/>
       <c r="B263" s="66"/>
       <c r="C263" s="66"/>
@@ -7509,43 +7509,43 @@
       <c r="G263" s="66"/>
       <c r="H263" s="67"/>
     </row>
-    <row r="264" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="85" t="s">
+    <row r="264" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="B264" s="77"/>
-      <c r="C264" s="77"/>
-      <c r="D264" s="77"/>
-      <c r="E264" s="77"/>
-      <c r="F264" s="77"/>
+      <c r="B264" s="76"/>
+      <c r="C264" s="76"/>
+      <c r="D264" s="76"/>
+      <c r="E264" s="76"/>
+      <c r="F264" s="76"/>
       <c r="G264" s="17"/>
       <c r="H264" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="49"/>
-      <c r="B265" s="70" t="s">
+      <c r="B265" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="C265" s="71"/>
-      <c r="D265" s="71"/>
-      <c r="E265" s="71"/>
-      <c r="F265" s="71"/>
+      <c r="C265" s="78"/>
+      <c r="D265" s="78"/>
+      <c r="E265" s="78"/>
+      <c r="F265" s="78"/>
       <c r="G265" s="15"/>
       <c r="H265" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="49"/>
       <c r="B266" s="13"/>
-      <c r="C266" s="72" t="s">
+      <c r="C266" s="79" t="s">
         <v>346</v>
       </c>
-      <c r="D266" s="73"/>
-      <c r="E266" s="73"/>
-      <c r="F266" s="73"/>
+      <c r="D266" s="80"/>
+      <c r="E266" s="80"/>
+      <c r="F266" s="80"/>
       <c r="G266" s="14" t="s">
         <v>347</v>
       </c>
@@ -7553,15 +7553,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="49"/>
       <c r="B267" s="15"/>
-      <c r="C267" s="70" t="s">
+      <c r="C267" s="77" t="s">
         <v>348</v>
       </c>
-      <c r="D267" s="71"/>
-      <c r="E267" s="71"/>
-      <c r="F267" s="71"/>
+      <c r="D267" s="78"/>
+      <c r="E267" s="78"/>
+      <c r="F267" s="78"/>
       <c r="G267" s="16" t="s">
         <v>347</v>
       </c>
@@ -7569,15 +7569,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="49"/>
       <c r="B268" s="13"/>
-      <c r="C268" s="72" t="s">
+      <c r="C268" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="D268" s="73"/>
-      <c r="E268" s="73"/>
-      <c r="F268" s="73"/>
+      <c r="D268" s="80"/>
+      <c r="E268" s="80"/>
+      <c r="F268" s="80"/>
       <c r="G268" s="14" t="s">
         <v>347</v>
       </c>
@@ -7585,15 +7585,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="49"/>
       <c r="B269" s="15"/>
-      <c r="C269" s="70" t="s">
+      <c r="C269" s="77" t="s">
         <v>350</v>
       </c>
-      <c r="D269" s="71"/>
-      <c r="E269" s="71"/>
-      <c r="F269" s="71"/>
+      <c r="D269" s="78"/>
+      <c r="E269" s="78"/>
+      <c r="F269" s="78"/>
       <c r="G269" s="16" t="s">
         <v>347</v>
       </c>
@@ -7601,15 +7601,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="49"/>
       <c r="B270" s="13"/>
-      <c r="C270" s="72" t="s">
+      <c r="C270" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="D270" s="73"/>
-      <c r="E270" s="73"/>
-      <c r="F270" s="73"/>
+      <c r="D270" s="80"/>
+      <c r="E270" s="80"/>
+      <c r="F270" s="80"/>
       <c r="G270" s="14" t="s">
         <v>347</v>
       </c>
@@ -7617,15 +7617,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="49"/>
       <c r="B271" s="15"/>
-      <c r="C271" s="70" t="s">
+      <c r="C271" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="D271" s="71"/>
-      <c r="E271" s="71"/>
-      <c r="F271" s="71"/>
+      <c r="D271" s="78"/>
+      <c r="E271" s="78"/>
+      <c r="F271" s="78"/>
       <c r="G271" s="16" t="s">
         <v>347</v>
       </c>
@@ -7633,15 +7633,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="49"/>
       <c r="B272" s="13"/>
-      <c r="C272" s="72" t="s">
+      <c r="C272" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="D272" s="73"/>
-      <c r="E272" s="73"/>
-      <c r="F272" s="73"/>
+      <c r="D272" s="80"/>
+      <c r="E272" s="80"/>
+      <c r="F272" s="80"/>
       <c r="G272" s="14" t="s">
         <v>347</v>
       </c>
@@ -7649,15 +7649,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="49"/>
       <c r="B273" s="15"/>
-      <c r="C273" s="70" t="s">
+      <c r="C273" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="D273" s="71"/>
-      <c r="E273" s="71"/>
-      <c r="F273" s="71"/>
+      <c r="D273" s="78"/>
+      <c r="E273" s="78"/>
+      <c r="F273" s="78"/>
       <c r="G273" s="16" t="s">
         <v>347</v>
       </c>
@@ -7665,15 +7665,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="49"/>
       <c r="B274" s="13"/>
-      <c r="C274" s="72" t="s">
+      <c r="C274" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="D274" s="73"/>
-      <c r="E274" s="73"/>
-      <c r="F274" s="73"/>
+      <c r="D274" s="80"/>
+      <c r="E274" s="80"/>
+      <c r="F274" s="80"/>
       <c r="G274" s="14" t="s">
         <v>347</v>
       </c>
@@ -7681,15 +7681,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="49"/>
       <c r="B275" s="15"/>
-      <c r="C275" s="70" t="s">
+      <c r="C275" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="D275" s="71"/>
-      <c r="E275" s="71"/>
-      <c r="F275" s="71"/>
+      <c r="D275" s="78"/>
+      <c r="E275" s="78"/>
+      <c r="F275" s="78"/>
       <c r="G275" s="16" t="s">
         <v>347</v>
       </c>
@@ -7697,15 +7697,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="49"/>
       <c r="B276" s="13"/>
-      <c r="C276" s="72" t="s">
+      <c r="C276" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="D276" s="73"/>
-      <c r="E276" s="73"/>
-      <c r="F276" s="73"/>
+      <c r="D276" s="80"/>
+      <c r="E276" s="80"/>
+      <c r="F276" s="80"/>
       <c r="G276" s="14" t="s">
         <v>347</v>
       </c>
@@ -7713,15 +7713,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="49"/>
       <c r="B277" s="15"/>
-      <c r="C277" s="70" t="s">
+      <c r="C277" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="D277" s="71"/>
-      <c r="E277" s="71"/>
-      <c r="F277" s="71"/>
+      <c r="D277" s="78"/>
+      <c r="E277" s="78"/>
+      <c r="F277" s="78"/>
       <c r="G277" s="16" t="s">
         <v>347</v>
       </c>
@@ -7729,15 +7729,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="49"/>
       <c r="B278" s="13"/>
-      <c r="C278" s="72" t="s">
+      <c r="C278" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="D278" s="73"/>
-      <c r="E278" s="73"/>
-      <c r="F278" s="73"/>
+      <c r="D278" s="80"/>
+      <c r="E278" s="80"/>
+      <c r="F278" s="80"/>
       <c r="G278" s="14" t="s">
         <v>347</v>
       </c>
@@ -7745,15 +7745,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="49"/>
       <c r="B279" s="15"/>
-      <c r="C279" s="70" t="s">
+      <c r="C279" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="D279" s="71"/>
-      <c r="E279" s="71"/>
-      <c r="F279" s="71"/>
+      <c r="D279" s="78"/>
+      <c r="E279" s="78"/>
+      <c r="F279" s="78"/>
       <c r="G279" s="16" t="s">
         <v>347</v>
       </c>
@@ -7761,15 +7761,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="49"/>
       <c r="B280" s="13"/>
-      <c r="C280" s="72" t="s">
+      <c r="C280" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="D280" s="73"/>
-      <c r="E280" s="73"/>
-      <c r="F280" s="73"/>
+      <c r="D280" s="80"/>
+      <c r="E280" s="80"/>
+      <c r="F280" s="80"/>
       <c r="G280" s="14" t="s">
         <v>347</v>
       </c>
@@ -7777,15 +7777,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="49"/>
       <c r="B281" s="15"/>
-      <c r="C281" s="70" t="s">
+      <c r="C281" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="D281" s="71"/>
-      <c r="E281" s="71"/>
-      <c r="F281" s="71"/>
+      <c r="D281" s="78"/>
+      <c r="E281" s="78"/>
+      <c r="F281" s="78"/>
       <c r="G281" s="16" t="s">
         <v>347</v>
       </c>
@@ -7793,15 +7793,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="49"/>
       <c r="B282" s="13"/>
-      <c r="C282" s="72" t="s">
+      <c r="C282" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="D282" s="73"/>
-      <c r="E282" s="73"/>
-      <c r="F282" s="73"/>
+      <c r="D282" s="80"/>
+      <c r="E282" s="80"/>
+      <c r="F282" s="80"/>
       <c r="G282" s="14" t="s">
         <v>347</v>
       </c>
@@ -7809,15 +7809,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="49"/>
       <c r="B283" s="15"/>
-      <c r="C283" s="70" t="s">
+      <c r="C283" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="D283" s="71"/>
-      <c r="E283" s="71"/>
-      <c r="F283" s="71"/>
+      <c r="D283" s="78"/>
+      <c r="E283" s="78"/>
+      <c r="F283" s="78"/>
       <c r="G283" s="16" t="s">
         <v>347</v>
       </c>
@@ -7825,15 +7825,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="49"/>
       <c r="B284" s="13"/>
-      <c r="C284" s="72" t="s">
+      <c r="C284" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D284" s="73"/>
-      <c r="E284" s="73"/>
-      <c r="F284" s="73"/>
+      <c r="D284" s="80"/>
+      <c r="E284" s="80"/>
+      <c r="F284" s="80"/>
       <c r="G284" s="14" t="s">
         <v>347</v>
       </c>
@@ -7841,15 +7841,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="49"/>
       <c r="B285" s="15"/>
-      <c r="C285" s="70" t="s">
+      <c r="C285" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="D285" s="71"/>
-      <c r="E285" s="71"/>
-      <c r="F285" s="71"/>
+      <c r="D285" s="78"/>
+      <c r="E285" s="78"/>
+      <c r="F285" s="78"/>
       <c r="G285" s="16" t="s">
         <v>347</v>
       </c>
@@ -7857,15 +7857,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="49"/>
       <c r="B286" s="13"/>
-      <c r="C286" s="72" t="s">
+      <c r="C286" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="D286" s="73"/>
-      <c r="E286" s="73"/>
-      <c r="F286" s="73"/>
+      <c r="D286" s="80"/>
+      <c r="E286" s="80"/>
+      <c r="F286" s="80"/>
       <c r="G286" s="14" t="s">
         <v>347</v>
       </c>
@@ -7873,15 +7873,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="55"/>
       <c r="B287" s="7"/>
-      <c r="C287" s="74" t="s">
+      <c r="C287" s="93" t="s">
         <v>368</v>
       </c>
-      <c r="D287" s="75"/>
-      <c r="E287" s="75"/>
-      <c r="F287" s="75"/>
+      <c r="D287" s="87"/>
+      <c r="E287" s="87"/>
+      <c r="F287" s="87"/>
       <c r="G287" s="3" t="s">
         <v>347</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="49"/>
       <c r="B288" s="66"/>
       <c r="C288" s="66"/>
@@ -7899,29 +7899,29 @@
       <c r="G288" s="66"/>
       <c r="H288" s="67"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="76" t="s">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="B289" s="77"/>
-      <c r="C289" s="77"/>
-      <c r="D289" s="77"/>
-      <c r="E289" s="77"/>
-      <c r="F289" s="77"/>
+      <c r="B289" s="76"/>
+      <c r="C289" s="76"/>
+      <c r="D289" s="76"/>
+      <c r="E289" s="76"/>
+      <c r="F289" s="76"/>
       <c r="G289" s="17"/>
       <c r="H289" s="56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="55"/>
-      <c r="B290" s="78" t="s">
+      <c r="B290" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="C290" s="79"/>
-      <c r="D290" s="79"/>
-      <c r="E290" s="79"/>
-      <c r="F290" s="79"/>
+      <c r="C290" s="84"/>
+      <c r="D290" s="84"/>
+      <c r="E290" s="84"/>
+      <c r="F290" s="84"/>
       <c r="G290" s="10" t="s">
         <v>370</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="49"/>
       <c r="B291" s="66"/>
       <c r="C291" s="66"/>
@@ -7939,29 +7939,29 @@
       <c r="G291" s="66"/>
       <c r="H291" s="67"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="76" t="s">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="B292" s="77"/>
-      <c r="C292" s="77"/>
-      <c r="D292" s="77"/>
-      <c r="E292" s="77"/>
-      <c r="F292" s="77"/>
+      <c r="B292" s="76"/>
+      <c r="C292" s="76"/>
+      <c r="D292" s="76"/>
+      <c r="E292" s="76"/>
+      <c r="F292" s="76"/>
       <c r="G292" s="17"/>
       <c r="H292" s="56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="46"/>
-      <c r="B293" s="80" t="s">
+      <c r="B293" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="C293" s="81"/>
-      <c r="D293" s="81"/>
-      <c r="E293" s="81"/>
-      <c r="F293" s="81"/>
+      <c r="C293" s="96"/>
+      <c r="D293" s="96"/>
+      <c r="E293" s="96"/>
+      <c r="F293" s="96"/>
       <c r="G293" s="1" t="s">
         <v>109</v>
       </c>
@@ -7971,249 +7971,6 @@
     </row>
   </sheetData>
   <mergeCells count="259">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="C126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="F144"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="F149"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="F156"/>
-    <mergeCell ref="F159"/>
-    <mergeCell ref="F162"/>
-    <mergeCell ref="F165"/>
-    <mergeCell ref="F168"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="F172"/>
-    <mergeCell ref="F175"/>
-    <mergeCell ref="F178"/>
-    <mergeCell ref="F181"/>
-    <mergeCell ref="F184"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="F189"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C203:F203"/>
-    <mergeCell ref="C204:F204"/>
-    <mergeCell ref="C205:F205"/>
-    <mergeCell ref="C206:F206"/>
-    <mergeCell ref="C207:F207"/>
-    <mergeCell ref="C208:F208"/>
-    <mergeCell ref="C209:F209"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C213:F213"/>
-    <mergeCell ref="C214:F214"/>
-    <mergeCell ref="C215:F215"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C217:F217"/>
-    <mergeCell ref="C218:F218"/>
-    <mergeCell ref="C219:F219"/>
-    <mergeCell ref="C220:F220"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="C222:F222"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="C225:F225"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="C229:F229"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="C233:F233"/>
-    <mergeCell ref="C234:F234"/>
-    <mergeCell ref="C235:F235"/>
-    <mergeCell ref="C236:F236"/>
-    <mergeCell ref="C237:F237"/>
-    <mergeCell ref="C238:F238"/>
-    <mergeCell ref="C239:F239"/>
-    <mergeCell ref="C240:F240"/>
-    <mergeCell ref="C241:F241"/>
-    <mergeCell ref="C242:F242"/>
-    <mergeCell ref="C243:F243"/>
-    <mergeCell ref="C244:F244"/>
-    <mergeCell ref="C245:F245"/>
-    <mergeCell ref="C246:F246"/>
-    <mergeCell ref="C247:F247"/>
-    <mergeCell ref="C248:F248"/>
-    <mergeCell ref="C249:F249"/>
-    <mergeCell ref="C250:F250"/>
-    <mergeCell ref="C251:F251"/>
-    <mergeCell ref="C252:F252"/>
-    <mergeCell ref="C253:F253"/>
-    <mergeCell ref="C254:F254"/>
-    <mergeCell ref="C255:F255"/>
-    <mergeCell ref="C256:F256"/>
-    <mergeCell ref="C257:F257"/>
-    <mergeCell ref="C258:F258"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="A261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="C266:F266"/>
-    <mergeCell ref="C267:F267"/>
-    <mergeCell ref="C268:F268"/>
-    <mergeCell ref="C269:F269"/>
-    <mergeCell ref="C270:F270"/>
-    <mergeCell ref="C271:F271"/>
-    <mergeCell ref="C272:F272"/>
-    <mergeCell ref="C273:F273"/>
-    <mergeCell ref="C274:F274"/>
-    <mergeCell ref="C275:F275"/>
     <mergeCell ref="C285:F285"/>
     <mergeCell ref="C286:F286"/>
     <mergeCell ref="C287:F287"/>
@@ -8230,6 +7987,249 @@
     <mergeCell ref="C282:F282"/>
     <mergeCell ref="C283:F283"/>
     <mergeCell ref="C284:F284"/>
+    <mergeCell ref="C267:F267"/>
+    <mergeCell ref="C268:F268"/>
+    <mergeCell ref="C269:F269"/>
+    <mergeCell ref="C270:F270"/>
+    <mergeCell ref="C271:F271"/>
+    <mergeCell ref="C272:F272"/>
+    <mergeCell ref="C273:F273"/>
+    <mergeCell ref="C274:F274"/>
+    <mergeCell ref="C275:F275"/>
+    <mergeCell ref="C256:F256"/>
+    <mergeCell ref="C257:F257"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="A261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="C266:F266"/>
+    <mergeCell ref="C247:F247"/>
+    <mergeCell ref="C248:F248"/>
+    <mergeCell ref="C249:F249"/>
+    <mergeCell ref="C250:F250"/>
+    <mergeCell ref="C251:F251"/>
+    <mergeCell ref="C252:F252"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="C254:F254"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="C238:F238"/>
+    <mergeCell ref="C239:F239"/>
+    <mergeCell ref="C240:F240"/>
+    <mergeCell ref="C241:F241"/>
+    <mergeCell ref="C242:F242"/>
+    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="C244:F244"/>
+    <mergeCell ref="C245:F245"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="C234:F234"/>
+    <mergeCell ref="C235:F235"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="C237:F237"/>
+    <mergeCell ref="C220:F220"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C222:F222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="C225:F225"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C213:F213"/>
+    <mergeCell ref="C214:F214"/>
+    <mergeCell ref="C215:F215"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C217:F217"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="C219:F219"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="C208:F208"/>
+    <mergeCell ref="C209:F209"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="F172"/>
+    <mergeCell ref="F175"/>
+    <mergeCell ref="F178"/>
+    <mergeCell ref="F181"/>
+    <mergeCell ref="F184"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="F189"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="F156"/>
+    <mergeCell ref="F159"/>
+    <mergeCell ref="F162"/>
+    <mergeCell ref="F165"/>
+    <mergeCell ref="F168"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="F144"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="F149"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="C126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.1" footer="0.1"/>
